--- a/database/seeds/users.xlsx
+++ b/database/seeds/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glenn/Documents/NUS/Hackers/eusoff/database/seeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16D2779-2913-244A-8307-8C4B1245937E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61480D90-3499-7C4C-BF57-3C50983AF598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{8DAFC702-1F3B-F547-BEBA-3024C546E2F5}"/>
   </bookViews>
@@ -2840,8 +2840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC945133-D0D9-CA4B-AEFC-D56F9CA7005B}">
   <dimension ref="A1:E406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+      <selection activeCell="E244" sqref="E244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3613,7 +3613,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5075,7 +5075,7 @@
         <v>1</v>
       </c>
       <c r="E131" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5500,7 +5500,7 @@
         <v>3</v>
       </c>
       <c r="E156" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6163,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="E195" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6996,7 +6996,7 @@
         <v>1</v>
       </c>
       <c r="E244" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7081,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="E249" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7234,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="E258" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8883,7 +8883,7 @@
         <v>2</v>
       </c>
       <c r="E355" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">

--- a/database/seeds/users.xlsx
+++ b/database/seeds/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glenn/Documents/NUS/Hackers/eusoff/database/seeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D19B1B4-A953-1E4F-A1D5-60AD0BAD300A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D31D98E-ACB8-8F4E-AC51-A48ABD2476C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37040" yWindow="1920" windowWidth="27640" windowHeight="16260" xr2:uid="{8DAFC702-1F3B-F547-BEBA-3024C546E2F5}"/>
+    <workbookView xWindow="16660" yWindow="5720" windowWidth="21740" windowHeight="14520" xr2:uid="{8DAFC702-1F3B-F547-BEBA-3024C546E2F5}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -2852,8 +2852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC945133-D0D9-CA4B-AEFC-D56F9CA7005B}">
   <dimension ref="A1:G406"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4421,7 +4421,7 @@
         <v>2</v>
       </c>
       <c r="F68" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" s="1">
         <v>1</v>
@@ -9961,7 +9961,7 @@
         <v>620</v>
       </c>
       <c r="E309" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F309" s="1">
         <v>1</v>

--- a/database/seeds/users.xlsx
+++ b/database/seeds/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glenn/Documents/NUS/Hackers/eusoff/database/seeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D31D98E-ACB8-8F4E-AC51-A48ABD2476C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC264C4F-7D27-404B-821E-89309E6C3FA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16660" yWindow="5720" windowWidth="21740" windowHeight="14520" xr2:uid="{8DAFC702-1F3B-F547-BEBA-3024C546E2F5}"/>
+    <workbookView xWindow="16560" yWindow="460" windowWidth="21840" windowHeight="19700" xr2:uid="{8DAFC702-1F3B-F547-BEBA-3024C546E2F5}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="821">
   <si>
     <t>id</t>
   </si>
@@ -2493,6 +2493,12 @@
   </si>
   <si>
     <t>has_mixed</t>
+  </si>
+  <si>
+    <t>allocated_number</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -2850,10 +2856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC945133-D0D9-CA4B-AEFC-D56F9CA7005B}">
-  <dimension ref="A1:G406"/>
+  <dimension ref="A1:H406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2863,7 +2869,7 @@
     <col min="5" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2885,8 +2891,11 @@
       <c r="G1" s="1" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2908,8 +2917,11 @@
       <c r="G2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2931,8 +2943,11 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2954,8 +2969,11 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2977,8 +2995,11 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3000,8 +3021,11 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3023,8 +3047,11 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3046,8 +3073,11 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3069,8 +3099,11 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3092,8 +3125,11 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3115,8 +3151,11 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3138,8 +3177,11 @@
       <c r="G12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3161,8 +3203,11 @@
       <c r="G13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3184,8 +3229,11 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3207,8 +3255,11 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3230,8 +3281,11 @@
       <c r="G16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3253,8 +3307,11 @@
       <c r="G17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3276,8 +3333,11 @@
       <c r="G18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3299,8 +3359,11 @@
       <c r="G19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3322,8 +3385,11 @@
       <c r="G20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3345,8 +3411,11 @@
       <c r="G21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3368,8 +3437,11 @@
       <c r="G22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3391,8 +3463,11 @@
       <c r="G23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3414,8 +3489,11 @@
       <c r="G24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3437,8 +3515,11 @@
       <c r="G25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3460,8 +3541,11 @@
       <c r="G26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3483,8 +3567,11 @@
       <c r="G27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3506,8 +3593,11 @@
       <c r="G28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3529,8 +3619,11 @@
       <c r="G29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3552,8 +3645,11 @@
       <c r="G30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3575,8 +3671,11 @@
       <c r="G31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H31" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3598,8 +3697,11 @@
       <c r="G32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H32" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3621,8 +3723,11 @@
       <c r="G33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3644,8 +3749,11 @@
       <c r="G34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H34" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3667,8 +3775,11 @@
       <c r="G35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H35" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3690,8 +3801,11 @@
       <c r="G36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3713,8 +3827,11 @@
       <c r="G37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3736,8 +3853,11 @@
       <c r="G38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H38" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3759,8 +3879,11 @@
       <c r="G39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H39" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3782,8 +3905,11 @@
       <c r="G40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H40" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3805,8 +3931,11 @@
       <c r="G41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H41" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3828,8 +3957,11 @@
       <c r="G42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H42" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3851,8 +3983,11 @@
       <c r="G43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H43" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3874,8 +4009,11 @@
       <c r="G44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H44" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3897,8 +4035,11 @@
       <c r="G45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H45" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3920,8 +4061,11 @@
       <c r="G46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H46" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3943,8 +4087,11 @@
       <c r="G47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H47" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3966,8 +4113,11 @@
       <c r="G48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H48" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3989,8 +4139,11 @@
       <c r="G49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H49" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4012,8 +4165,11 @@
       <c r="G50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4035,8 +4191,11 @@
       <c r="G51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H51" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4058,8 +4217,11 @@
       <c r="G52" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H52" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4081,8 +4243,11 @@
       <c r="G53" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H53" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4104,8 +4269,11 @@
       <c r="G54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H54" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4127,8 +4295,11 @@
       <c r="G55" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H55" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4150,8 +4321,11 @@
       <c r="G56" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H56" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4173,8 +4347,11 @@
       <c r="G57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H57" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4196,8 +4373,11 @@
       <c r="G58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H58" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4219,8 +4399,11 @@
       <c r="G59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H59" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4242,8 +4425,11 @@
       <c r="G60" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H60" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4265,8 +4451,11 @@
       <c r="G61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H61" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4288,8 +4477,11 @@
       <c r="G62" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H62" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4311,8 +4503,11 @@
       <c r="G63" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H63" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4334,8 +4529,11 @@
       <c r="G64" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H64" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4357,8 +4555,11 @@
       <c r="G65" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H65" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4380,8 +4581,11 @@
       <c r="G66" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H66" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4403,8 +4607,11 @@
       <c r="G67" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H67" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4426,8 +4633,11 @@
       <c r="G68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H68" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4449,8 +4659,11 @@
       <c r="G69" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H69" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4472,8 +4685,11 @@
       <c r="G70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H70" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4495,8 +4711,11 @@
       <c r="G71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H71" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4518,8 +4737,11 @@
       <c r="G72" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H72" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4541,8 +4763,11 @@
       <c r="G73" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H73" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4564,8 +4789,11 @@
       <c r="G74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H74" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4587,8 +4815,11 @@
       <c r="G75" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H75" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4610,8 +4841,11 @@
       <c r="G76" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H76" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4633,8 +4867,11 @@
       <c r="G77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H77" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4656,8 +4893,11 @@
       <c r="G78" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H78" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4679,8 +4919,11 @@
       <c r="G79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H79" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4702,8 +4945,11 @@
       <c r="G80" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H80" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4725,8 +4971,11 @@
       <c r="G81" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H81" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4748,8 +4997,11 @@
       <c r="G82" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H82" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4771,8 +5023,11 @@
       <c r="G83" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H83" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4794,8 +5049,11 @@
       <c r="G84" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H84" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -4817,8 +5075,11 @@
       <c r="G85" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H85" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -4840,8 +5101,11 @@
       <c r="G86" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H86" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -4863,8 +5127,11 @@
       <c r="G87" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H87" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -4886,8 +5153,11 @@
       <c r="G88" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H88" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -4909,8 +5179,11 @@
       <c r="G89" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H89" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -4932,8 +5205,11 @@
       <c r="G90" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H90" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -4955,8 +5231,11 @@
       <c r="G91" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H91" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -4978,8 +5257,11 @@
       <c r="G92" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H92" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5001,8 +5283,11 @@
       <c r="G93" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H93" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5024,8 +5309,11 @@
       <c r="G94" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H94" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5047,8 +5335,11 @@
       <c r="G95" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H95" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5070,8 +5361,11 @@
       <c r="G96" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H96" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5093,8 +5387,11 @@
       <c r="G97" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H97" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5116,8 +5413,11 @@
       <c r="G98" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H98" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5139,8 +5439,11 @@
       <c r="G99" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H99" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5162,8 +5465,11 @@
       <c r="G100" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H100" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5185,8 +5491,11 @@
       <c r="G101" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H101" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5208,8 +5517,11 @@
       <c r="G102" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H102" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5231,8 +5543,11 @@
       <c r="G103" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H103" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -5254,8 +5569,11 @@
       <c r="G104" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H104" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -5277,8 +5595,11 @@
       <c r="G105" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H105" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -5300,8 +5621,11 @@
       <c r="G106" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H106" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -5323,8 +5647,11 @@
       <c r="G107" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H107" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -5346,8 +5673,11 @@
       <c r="G108" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H108" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -5369,8 +5699,11 @@
       <c r="G109" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H109" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -5392,8 +5725,11 @@
       <c r="G110" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H110" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -5415,8 +5751,11 @@
       <c r="G111" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H111" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -5438,8 +5777,11 @@
       <c r="G112" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H112" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -5461,8 +5803,11 @@
       <c r="G113" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H113" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -5484,8 +5829,11 @@
       <c r="G114" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H114" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -5507,8 +5855,11 @@
       <c r="G115" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H115" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -5530,8 +5881,11 @@
       <c r="G116" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H116" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -5553,8 +5907,11 @@
       <c r="G117" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H117" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -5576,8 +5933,11 @@
       <c r="G118" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H118" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -5599,8 +5959,11 @@
       <c r="G119" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H119" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -5622,8 +5985,11 @@
       <c r="G120" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H120" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -5645,8 +6011,11 @@
       <c r="G121" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H121" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -5668,8 +6037,11 @@
       <c r="G122" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H122" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -5691,8 +6063,11 @@
       <c r="G123" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H123" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -5714,8 +6089,11 @@
       <c r="G124" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H124" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -5737,8 +6115,11 @@
       <c r="G125" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H125" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -5760,8 +6141,11 @@
       <c r="G126" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H126" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -5783,8 +6167,11 @@
       <c r="G127" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H127" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -5806,8 +6193,11 @@
       <c r="G128" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H128" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -5829,8 +6219,11 @@
       <c r="G129" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H129" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -5852,8 +6245,11 @@
       <c r="G130" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H130" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -5875,8 +6271,11 @@
       <c r="G131" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H131" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -5898,8 +6297,11 @@
       <c r="G132" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H132" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -5921,8 +6323,11 @@
       <c r="G133" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H133" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -5944,8 +6349,11 @@
       <c r="G134" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H134" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -5967,8 +6375,11 @@
       <c r="G135" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H135" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -5990,8 +6401,11 @@
       <c r="G136" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H136" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -6013,8 +6427,11 @@
       <c r="G137" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H137" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -6036,8 +6453,11 @@
       <c r="G138" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H138" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -6059,8 +6479,11 @@
       <c r="G139" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H139" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -6082,8 +6505,11 @@
       <c r="G140" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H140" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -6105,8 +6531,11 @@
       <c r="G141" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H141" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -6128,8 +6557,11 @@
       <c r="G142" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H142" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -6151,8 +6583,11 @@
       <c r="G143" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H143" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -6174,8 +6609,11 @@
       <c r="G144" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H144" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -6197,8 +6635,11 @@
       <c r="G145" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H145" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -6220,8 +6661,11 @@
       <c r="G146" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H146" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -6243,8 +6687,11 @@
       <c r="G147" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H147" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -6266,8 +6713,11 @@
       <c r="G148" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H148" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -6289,8 +6739,11 @@
       <c r="G149" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H149" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -6312,8 +6765,11 @@
       <c r="G150" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H150" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -6335,8 +6791,11 @@
       <c r="G151" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H151" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -6358,8 +6817,11 @@
       <c r="G152" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H152" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -6381,8 +6843,11 @@
       <c r="G153" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H153" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -6404,8 +6869,11 @@
       <c r="G154" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H154" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -6427,8 +6895,11 @@
       <c r="G155" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H155" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -6450,8 +6921,11 @@
       <c r="G156" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H156" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -6473,8 +6947,11 @@
       <c r="G157" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H157" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -6496,8 +6973,11 @@
       <c r="G158" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H158" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -6519,8 +6999,11 @@
       <c r="G159" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H159" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -6542,8 +7025,11 @@
       <c r="G160" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H160" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -6565,8 +7051,11 @@
       <c r="G161" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H161" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -6588,8 +7077,11 @@
       <c r="G162" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H162" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -6611,8 +7103,11 @@
       <c r="G163" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H163" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -6634,8 +7129,11 @@
       <c r="G164" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H164" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -6657,8 +7155,11 @@
       <c r="G165" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H165" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -6680,8 +7181,11 @@
       <c r="G166" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H166" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -6703,8 +7207,11 @@
       <c r="G167" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H167" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -6726,8 +7233,11 @@
       <c r="G168" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H168" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -6749,8 +7259,11 @@
       <c r="G169" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H169" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -6772,8 +7285,11 @@
       <c r="G170" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H170" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -6795,8 +7311,11 @@
       <c r="G171" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H171" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -6818,8 +7337,11 @@
       <c r="G172" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H172" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -6841,8 +7363,11 @@
       <c r="G173" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H173" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -6864,8 +7389,11 @@
       <c r="G174" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H174" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -6887,8 +7415,11 @@
       <c r="G175" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H175" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -6910,8 +7441,11 @@
       <c r="G176" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H176" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -6933,8 +7467,11 @@
       <c r="G177" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H177" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -6956,8 +7493,11 @@
       <c r="G178" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H178" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -6979,8 +7519,11 @@
       <c r="G179" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H179" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -7002,8 +7545,11 @@
       <c r="G180" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H180" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -7025,8 +7571,11 @@
       <c r="G181" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H181" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -7048,8 +7597,11 @@
       <c r="G182" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H182" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -7071,8 +7623,11 @@
       <c r="G183" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H183" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -7094,8 +7649,11 @@
       <c r="G184" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H184" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -7117,8 +7675,11 @@
       <c r="G185" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H185" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -7140,8 +7701,11 @@
       <c r="G186" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H186" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -7163,8 +7727,11 @@
       <c r="G187" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H187" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -7186,8 +7753,11 @@
       <c r="G188" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H188" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -7209,8 +7779,11 @@
       <c r="G189" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H189" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -7232,8 +7805,11 @@
       <c r="G190" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H190" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -7255,8 +7831,11 @@
       <c r="G191" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H191" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -7278,8 +7857,11 @@
       <c r="G192" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H192" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -7301,8 +7883,11 @@
       <c r="G193" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H193" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -7324,8 +7909,11 @@
       <c r="G194" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H194" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -7347,8 +7935,11 @@
       <c r="G195" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H195" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -7370,8 +7961,11 @@
       <c r="G196" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H196" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -7393,8 +7987,11 @@
       <c r="G197" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H197" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -7416,8 +8013,11 @@
       <c r="G198" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H198" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -7439,8 +8039,11 @@
       <c r="G199" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H199" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -7462,8 +8065,11 @@
       <c r="G200" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H200" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -7485,8 +8091,11 @@
       <c r="G201" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H201" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -7508,8 +8117,11 @@
       <c r="G202" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H202" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -7531,8 +8143,11 @@
       <c r="G203" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H203" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -7554,8 +8169,11 @@
       <c r="G204" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H204" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -7577,8 +8195,11 @@
       <c r="G205" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H205" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -7600,8 +8221,11 @@
       <c r="G206" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H206" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -7623,8 +8247,11 @@
       <c r="G207" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H207" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -7646,8 +8273,11 @@
       <c r="G208" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H208" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -7669,8 +8299,11 @@
       <c r="G209" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H209" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -7692,8 +8325,11 @@
       <c r="G210" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H210" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -7715,8 +8351,11 @@
       <c r="G211" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H211" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -7738,8 +8377,11 @@
       <c r="G212" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H212" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -7761,8 +8403,11 @@
       <c r="G213" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H213" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -7784,8 +8429,11 @@
       <c r="G214" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H214" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -7807,8 +8455,11 @@
       <c r="G215" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H215" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -7830,8 +8481,11 @@
       <c r="G216" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H216" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -7853,8 +8507,11 @@
       <c r="G217" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H217" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -7876,8 +8533,11 @@
       <c r="G218" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H218" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -7899,8 +8559,11 @@
       <c r="G219" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H219" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -7922,8 +8585,11 @@
       <c r="G220" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H220" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -7945,8 +8611,11 @@
       <c r="G221" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H221" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -7968,8 +8637,11 @@
       <c r="G222" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H222" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -7991,8 +8663,11 @@
       <c r="G223" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H223" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -8014,8 +8689,11 @@
       <c r="G224" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H224" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -8037,8 +8715,11 @@
       <c r="G225" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H225" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -8060,8 +8741,11 @@
       <c r="G226" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H226" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -8083,8 +8767,11 @@
       <c r="G227" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H227" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -8106,8 +8793,11 @@
       <c r="G228" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H228" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -8129,8 +8819,11 @@
       <c r="G229" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H229" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -8152,8 +8845,11 @@
       <c r="G230" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H230" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -8175,8 +8871,11 @@
       <c r="G231" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H231" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -8198,8 +8897,11 @@
       <c r="G232" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H232" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -8221,8 +8923,11 @@
       <c r="G233" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H233" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -8244,8 +8949,11 @@
       <c r="G234" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H234" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -8267,8 +8975,11 @@
       <c r="G235" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H235" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -8290,8 +9001,11 @@
       <c r="G236" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H236" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -8313,8 +9027,11 @@
       <c r="G237" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H237" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -8336,8 +9053,11 @@
       <c r="G238" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H238" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -8359,8 +9079,11 @@
       <c r="G239" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H239" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -8382,8 +9105,11 @@
       <c r="G240" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H240" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -8405,8 +9131,11 @@
       <c r="G241" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H241" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -8428,8 +9157,11 @@
       <c r="G242" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H242" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -8451,8 +9183,11 @@
       <c r="G243" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H243" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -8474,8 +9209,11 @@
       <c r="G244" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H244" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -8497,8 +9235,11 @@
       <c r="G245" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H245" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -8520,8 +9261,11 @@
       <c r="G246" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H246" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -8543,8 +9287,11 @@
       <c r="G247" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H247" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -8566,8 +9313,11 @@
       <c r="G248" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H248" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -8589,8 +9339,11 @@
       <c r="G249" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H249" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -8612,8 +9365,11 @@
       <c r="G250" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H250" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -8635,8 +9391,11 @@
       <c r="G251" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H251" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -8658,8 +9417,11 @@
       <c r="G252" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H252" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -8681,8 +9443,11 @@
       <c r="G253" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H253" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -8704,8 +9469,11 @@
       <c r="G254" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H254" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -8727,8 +9495,11 @@
       <c r="G255" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H255" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -8750,8 +9521,11 @@
       <c r="G256" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H256" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -8773,8 +9547,11 @@
       <c r="G257" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H257" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -8796,8 +9573,11 @@
       <c r="G258" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H258" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -8819,8 +9599,11 @@
       <c r="G259" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H259" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -8842,8 +9625,11 @@
       <c r="G260" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H260" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -8865,8 +9651,11 @@
       <c r="G261" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H261" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -8888,8 +9677,11 @@
       <c r="G262" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H262" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -8911,8 +9703,11 @@
       <c r="G263" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H263" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -8934,8 +9729,11 @@
       <c r="G264" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H264" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -8957,8 +9755,11 @@
       <c r="G265" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H265" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -8980,8 +9781,11 @@
       <c r="G266" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H266" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -9003,8 +9807,11 @@
       <c r="G267" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H267" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -9026,8 +9833,11 @@
       <c r="G268" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H268" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -9049,8 +9859,11 @@
       <c r="G269" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H269" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -9072,8 +9885,11 @@
       <c r="G270" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H270" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -9095,8 +9911,11 @@
       <c r="G271" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H271" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -9118,8 +9937,11 @@
       <c r="G272" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H272" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -9141,8 +9963,11 @@
       <c r="G273" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H273" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -9164,8 +9989,11 @@
       <c r="G274" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H274" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -9187,8 +10015,11 @@
       <c r="G275" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H275" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -9210,8 +10041,11 @@
       <c r="G276" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H276" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -9233,8 +10067,11 @@
       <c r="G277" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H277" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -9256,8 +10093,11 @@
       <c r="G278" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H278" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -9279,8 +10119,11 @@
       <c r="G279" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H279" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -9302,8 +10145,11 @@
       <c r="G280" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H280" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -9325,8 +10171,11 @@
       <c r="G281" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H281" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -9348,8 +10197,11 @@
       <c r="G282" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H282" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -9371,8 +10223,11 @@
       <c r="G283" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H283" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -9394,8 +10249,11 @@
       <c r="G284" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H284" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -9417,8 +10275,11 @@
       <c r="G285" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H285" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -9440,8 +10301,11 @@
       <c r="G286" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H286" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -9463,8 +10327,11 @@
       <c r="G287" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H287" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -9486,8 +10353,11 @@
       <c r="G288" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H288" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -9509,8 +10379,11 @@
       <c r="G289" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H289" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -9532,8 +10405,11 @@
       <c r="G290" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H290" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -9555,8 +10431,11 @@
       <c r="G291" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H291" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -9578,8 +10457,11 @@
       <c r="G292" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H292" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -9601,8 +10483,11 @@
       <c r="G293" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H293" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -9624,8 +10509,11 @@
       <c r="G294" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H294" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -9647,8 +10535,11 @@
       <c r="G295" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H295" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -9670,8 +10561,11 @@
       <c r="G296" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H296" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -9693,8 +10587,11 @@
       <c r="G297" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H297" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -9716,8 +10613,11 @@
       <c r="G298" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H298" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -9739,8 +10639,11 @@
       <c r="G299" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H299" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -9762,8 +10665,11 @@
       <c r="G300" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H300" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -9785,8 +10691,11 @@
       <c r="G301" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H301" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -9808,8 +10717,11 @@
       <c r="G302" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H302" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -9831,8 +10743,11 @@
       <c r="G303" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H303" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -9854,8 +10769,11 @@
       <c r="G304" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H304" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -9877,8 +10795,11 @@
       <c r="G305" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H305" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -9900,8 +10821,11 @@
       <c r="G306" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H306" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -9923,8 +10847,11 @@
       <c r="G307" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H307" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -9946,8 +10873,11 @@
       <c r="G308" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H308" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -9969,8 +10899,11 @@
       <c r="G309" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H309" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -9992,8 +10925,11 @@
       <c r="G310" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H310" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -10015,8 +10951,11 @@
       <c r="G311" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H311" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -10038,8 +10977,11 @@
       <c r="G312" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H312" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -10061,8 +11003,11 @@
       <c r="G313" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H313" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -10084,8 +11029,11 @@
       <c r="G314" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H314" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -10107,8 +11055,11 @@
       <c r="G315" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H315" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -10130,8 +11081,11 @@
       <c r="G316" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H316" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -10153,8 +11107,11 @@
       <c r="G317" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H317" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -10176,8 +11133,11 @@
       <c r="G318" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H318" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -10199,8 +11159,11 @@
       <c r="G319" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H319" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -10222,8 +11185,11 @@
       <c r="G320" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H320" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -10245,8 +11211,11 @@
       <c r="G321" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H321" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -10268,8 +11237,11 @@
       <c r="G322" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H322" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -10291,8 +11263,11 @@
       <c r="G323" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H323" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -10314,8 +11289,11 @@
       <c r="G324" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H324" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -10337,8 +11315,11 @@
       <c r="G325" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H325" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -10360,8 +11341,11 @@
       <c r="G326" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H326" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -10383,8 +11367,11 @@
       <c r="G327" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H327" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -10406,8 +11393,11 @@
       <c r="G328" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H328" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -10429,8 +11419,11 @@
       <c r="G329" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H329" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -10452,8 +11445,11 @@
       <c r="G330" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H330" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -10475,8 +11471,11 @@
       <c r="G331" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H331" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -10498,8 +11497,11 @@
       <c r="G332" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H332" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -10521,8 +11523,11 @@
       <c r="G333" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H333" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -10544,8 +11549,11 @@
       <c r="G334" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H334" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -10567,8 +11575,11 @@
       <c r="G335" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H335" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -10590,8 +11601,11 @@
       <c r="G336" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H336" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -10613,8 +11627,11 @@
       <c r="G337" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H337" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -10636,8 +11653,11 @@
       <c r="G338" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H338" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -10659,8 +11679,11 @@
       <c r="G339" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H339" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -10682,8 +11705,11 @@
       <c r="G340" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H340" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -10705,8 +11731,11 @@
       <c r="G341" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H341" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -10728,8 +11757,11 @@
       <c r="G342" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H342" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -10751,8 +11783,11 @@
       <c r="G343" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H343" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -10774,8 +11809,11 @@
       <c r="G344" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H344" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -10797,8 +11835,11 @@
       <c r="G345" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H345" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -10820,8 +11861,11 @@
       <c r="G346" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H346" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -10843,8 +11887,11 @@
       <c r="G347" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H347" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -10866,8 +11913,11 @@
       <c r="G348" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H348" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -10889,8 +11939,11 @@
       <c r="G349" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H349" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -10912,8 +11965,11 @@
       <c r="G350" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H350" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -10935,8 +11991,11 @@
       <c r="G351" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H351" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -10958,8 +12017,11 @@
       <c r="G352" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H352" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -10981,8 +12043,11 @@
       <c r="G353" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H353" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -11004,8 +12069,11 @@
       <c r="G354" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H354" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -11027,8 +12095,11 @@
       <c r="G355" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H355" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -11050,8 +12121,11 @@
       <c r="G356" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H356" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -11073,8 +12147,11 @@
       <c r="G357" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H357" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -11096,8 +12173,11 @@
       <c r="G358" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H358" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -11119,8 +12199,11 @@
       <c r="G359" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H359" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -11142,8 +12225,11 @@
       <c r="G360" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H360" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -11165,8 +12251,11 @@
       <c r="G361" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H361" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -11188,8 +12277,11 @@
       <c r="G362" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H362" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -11211,8 +12303,11 @@
       <c r="G363" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H363" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -11234,8 +12329,11 @@
       <c r="G364" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H364" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -11257,8 +12355,11 @@
       <c r="G365" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H365" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -11280,8 +12381,11 @@
       <c r="G366" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H366" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -11303,8 +12407,11 @@
       <c r="G367" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H367" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -11326,8 +12433,11 @@
       <c r="G368" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H368" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -11349,8 +12459,11 @@
       <c r="G369" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H369" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -11372,8 +12485,11 @@
       <c r="G370" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H370" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -11395,8 +12511,11 @@
       <c r="G371" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H371" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -11418,8 +12537,11 @@
       <c r="G372" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H372" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -11441,8 +12563,11 @@
       <c r="G373" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H373" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -11464,8 +12589,11 @@
       <c r="G374" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H374" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -11487,8 +12615,11 @@
       <c r="G375" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H375" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -11510,8 +12641,11 @@
       <c r="G376" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H376" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -11533,8 +12667,11 @@
       <c r="G377" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H377" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -11556,8 +12693,11 @@
       <c r="G378" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H378" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -11579,8 +12719,11 @@
       <c r="G379" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="380" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H379" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -11602,8 +12745,11 @@
       <c r="G380" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="381" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H380" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -11625,8 +12771,11 @@
       <c r="G381" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H381" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -11648,8 +12797,11 @@
       <c r="G382" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H382" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -11671,8 +12823,11 @@
       <c r="G383" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H383" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -11694,8 +12849,11 @@
       <c r="G384" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H384" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -11717,8 +12875,11 @@
       <c r="G385" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H385" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -11740,8 +12901,11 @@
       <c r="G386" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H386" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -11763,8 +12927,11 @@
       <c r="G387" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H387" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -11786,8 +12953,11 @@
       <c r="G388" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="389" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H388" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -11809,8 +12979,11 @@
       <c r="G389" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H389" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -11832,8 +13005,11 @@
       <c r="G390" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H390" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -11855,8 +13031,11 @@
       <c r="G391" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H391" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -11878,8 +13057,11 @@
       <c r="G392" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H392" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -11901,8 +13083,11 @@
       <c r="G393" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H393" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -11924,8 +13109,11 @@
       <c r="G394" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="395" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H394" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -11947,8 +13135,11 @@
       <c r="G395" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H395" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -11970,8 +13161,11 @@
       <c r="G396" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H396" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -11993,8 +13187,11 @@
       <c r="G397" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H397" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -12016,8 +13213,11 @@
       <c r="G398" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H398" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -12039,8 +13239,11 @@
       <c r="G399" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="400" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H399" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -12062,8 +13265,11 @@
       <c r="G400" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H400" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -12085,8 +13291,11 @@
       <c r="G401" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H401" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -12108,8 +13317,11 @@
       <c r="G402" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="403" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H402" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -12131,8 +13343,11 @@
       <c r="G403" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H403" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -12154,8 +13369,11 @@
       <c r="G404" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H404" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -12177,8 +13395,11 @@
       <c r="G405" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="406" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H405" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -12199,6 +13420,9 @@
       </c>
       <c r="G406" s="1">
         <v>0</v>
+      </c>
+      <c r="H406" s="1" t="s">
+        <v>820</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeds/users.xlsx
+++ b/database/seeds/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glenn/Documents/NUS/Hackers/eusoff/database/seeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC264C4F-7D27-404B-821E-89309E6C3FA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F85912E-5059-B443-9E78-CFFAAE6DC012}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16560" yWindow="460" windowWidth="21840" windowHeight="19700" xr2:uid="{8DAFC702-1F3B-F547-BEBA-3024C546E2F5}"/>
   </bookViews>
@@ -2498,7 +2498,7 @@
     <t>allocated_number</t>
   </si>
   <si>
-    <t/>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -2859,7 +2859,7 @@
   <dimension ref="A1:H406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/database/seeds/users.xlsx
+++ b/database/seeds/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glenn/Documents/NUS/Hackers/eusoff/database/seeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F85912E-5059-B443-9E78-CFFAAE6DC012}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D3172B-FA0F-4448-84B7-EB3DBD5CF0E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16560" yWindow="460" windowWidth="21840" windowHeight="19700" xr2:uid="{8DAFC702-1F3B-F547-BEBA-3024C546E2F5}"/>
+    <workbookView xWindow="18580" yWindow="460" windowWidth="19820" windowHeight="19700" xr2:uid="{8DAFC702-1F3B-F547-BEBA-3024C546E2F5}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -2859,7 +2859,8 @@
   <dimension ref="A1:H406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F214" sqref="F214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8421,10 +8422,10 @@
         <v>430</v>
       </c>
       <c r="E214" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F214" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G214" s="1">
         <v>0</v>
@@ -12038,7 +12039,7 @@
         <v>0</v>
       </c>
       <c r="F353" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G353" s="1">
         <v>0</v>
@@ -12090,7 +12091,7 @@
         <v>2</v>
       </c>
       <c r="F355" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G355" s="1">
         <v>0</v>

--- a/database/seeds/users.xlsx
+++ b/database/seeds/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glenn/Documents/NUS/Hackers/eusoff/database/seeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D3172B-FA0F-4448-84B7-EB3DBD5CF0E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE34C97-FC66-A640-BAF5-DC5ABAAF99A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18580" yWindow="460" windowWidth="19820" windowHeight="19700" xr2:uid="{8DAFC702-1F3B-F547-BEBA-3024C546E2F5}"/>
+    <workbookView xWindow="9980" yWindow="580" windowWidth="28800" windowHeight="16240" xr2:uid="{8DAFC702-1F3B-F547-BEBA-3024C546E2F5}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="821">
   <si>
     <t>id</t>
   </si>
@@ -2859,15 +2859,16 @@
   <dimension ref="A1:H406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F214" sqref="F214"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1"/>
     <col min="2" max="4" width="13.6640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="14.5" style="1"/>
+    <col min="5" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3251,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -3906,8 +3907,8 @@
       <c r="G40" s="1">
         <v>0</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>820</v>
+      <c r="H40" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3932,8 +3933,8 @@
       <c r="G41" s="1">
         <v>0</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>820</v>
+      <c r="H41" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3958,8 +3959,8 @@
       <c r="G42" s="1">
         <v>1</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>820</v>
+      <c r="H42" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3984,8 +3985,8 @@
       <c r="G43" s="1">
         <v>0</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>820</v>
+      <c r="H43" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4005,13 +4006,13 @@
         <v>2</v>
       </c>
       <c r="F44" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>820</v>
+      <c r="H44" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4036,8 +4037,8 @@
       <c r="G45" s="1">
         <v>0</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>820</v>
+      <c r="H45" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4270,8 +4271,8 @@
       <c r="G54" s="1">
         <v>1</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>820</v>
+      <c r="H54" s="1">
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4322,8 +4323,8 @@
       <c r="G56" s="1">
         <v>0</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>820</v>
+      <c r="H56" s="1">
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4348,8 +4349,8 @@
       <c r="G57" s="1">
         <v>0</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>820</v>
+      <c r="H57" s="1">
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4374,8 +4375,8 @@
       <c r="G58" s="1">
         <v>0</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>820</v>
+      <c r="H58" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4400,8 +4401,8 @@
       <c r="G59" s="1">
         <v>1</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>820</v>
+      <c r="H59" s="1">
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4452,8 +4453,8 @@
       <c r="G61" s="1">
         <v>0</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>820</v>
+      <c r="H61" s="1">
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4634,8 +4635,8 @@
       <c r="G68" s="1">
         <v>1</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>820</v>
+      <c r="H68" s="1">
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4707,13 +4708,13 @@
         <v>2</v>
       </c>
       <c r="F71" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" s="1">
         <v>1</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>820</v>
+      <c r="H71" s="1">
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4764,8 +4765,8 @@
       <c r="G73" s="1">
         <v>0</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>820</v>
+      <c r="H73" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4790,8 +4791,8 @@
       <c r="G74" s="1">
         <v>1</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>820</v>
+      <c r="H74" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4998,8 +4999,8 @@
       <c r="G82" s="1">
         <v>1</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>820</v>
+      <c r="H82" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5050,8 +5051,8 @@
       <c r="G84" s="1">
         <v>1</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>820</v>
+      <c r="H84" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6116,8 +6117,8 @@
       <c r="G125" s="1">
         <v>0</v>
       </c>
-      <c r="H125" s="1" t="s">
-        <v>820</v>
+      <c r="H125" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6610,8 +6611,8 @@
       <c r="G144" s="1">
         <v>0</v>
       </c>
-      <c r="H144" s="1" t="s">
-        <v>820</v>
+      <c r="H144" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6896,8 +6897,8 @@
       <c r="G155" s="1">
         <v>1</v>
       </c>
-      <c r="H155" s="1" t="s">
-        <v>820</v>
+      <c r="H155" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6974,8 +6975,8 @@
       <c r="G158" s="1">
         <v>1</v>
       </c>
-      <c r="H158" s="1" t="s">
-        <v>820</v>
+      <c r="H158" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7026,8 +7027,8 @@
       <c r="G160" s="1">
         <v>0</v>
       </c>
-      <c r="H160" s="1" t="s">
-        <v>820</v>
+      <c r="H160" s="1">
+        <v>98</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8196,8 +8197,8 @@
       <c r="G205" s="1">
         <v>1</v>
       </c>
-      <c r="H205" s="1" t="s">
-        <v>820</v>
+      <c r="H205" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8425,13 +8426,13 @@
         <v>2</v>
       </c>
       <c r="F214" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G214" s="1">
         <v>0</v>
       </c>
-      <c r="H214" s="1" t="s">
-        <v>820</v>
+      <c r="H214" s="1">
+        <v>41</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8898,8 +8899,8 @@
       <c r="G232" s="1">
         <v>1</v>
       </c>
-      <c r="H232" s="1" t="s">
-        <v>820</v>
+      <c r="H232" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8924,8 +8925,8 @@
       <c r="G233" s="1">
         <v>0</v>
       </c>
-      <c r="H233" s="1" t="s">
-        <v>820</v>
+      <c r="H233" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9262,8 +9263,8 @@
       <c r="G246" s="1">
         <v>0</v>
       </c>
-      <c r="H246" s="1" t="s">
-        <v>820</v>
+      <c r="H246" s="1">
+        <v>55</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9288,8 +9289,8 @@
       <c r="G247" s="1">
         <v>0</v>
       </c>
-      <c r="H247" s="1" t="s">
-        <v>820</v>
+      <c r="H247" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9595,7 +9596,7 @@
         <v>0</v>
       </c>
       <c r="F259" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G259" s="1">
         <v>0</v>
@@ -9886,8 +9887,8 @@
       <c r="G270" s="1">
         <v>0</v>
       </c>
-      <c r="H270" s="1" t="s">
-        <v>820</v>
+      <c r="H270" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10354,8 +10355,8 @@
       <c r="G288" s="1">
         <v>1</v>
       </c>
-      <c r="H288" s="1" t="s">
-        <v>820</v>
+      <c r="H288" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10900,8 +10901,8 @@
       <c r="G309" s="1">
         <v>0</v>
       </c>
-      <c r="H309" s="1" t="s">
-        <v>820</v>
+      <c r="H309" s="1">
+        <v>71</v>
       </c>
     </row>
     <row r="310" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10926,8 +10927,8 @@
       <c r="G310" s="1">
         <v>0</v>
       </c>
-      <c r="H310" s="1" t="s">
-        <v>820</v>
+      <c r="H310" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="311" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11628,8 +11629,8 @@
       <c r="G337" s="1">
         <v>0</v>
       </c>
-      <c r="H337" s="1" t="s">
-        <v>820</v>
+      <c r="H337" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11940,8 +11941,8 @@
       <c r="G349" s="1">
         <v>0</v>
       </c>
-      <c r="H349" s="1" t="s">
-        <v>820</v>
+      <c r="H349" s="1">
+        <v>19</v>
       </c>
     </row>
     <row r="350" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12096,8 +12097,8 @@
       <c r="G355" s="1">
         <v>0</v>
       </c>
-      <c r="H355" s="1" t="s">
-        <v>820</v>
+      <c r="H355" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="356" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12252,8 +12253,8 @@
       <c r="G361" s="1">
         <v>0</v>
       </c>
-      <c r="H361" s="1" t="s">
-        <v>820</v>
+      <c r="H361" s="1">
+        <v>37</v>
       </c>
     </row>
     <row r="362" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -13084,8 +13085,8 @@
       <c r="G393" s="1">
         <v>0</v>
       </c>
-      <c r="H393" s="1" t="s">
-        <v>820</v>
+      <c r="H393" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="394" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -13266,8 +13267,8 @@
       <c r="G400" s="1">
         <v>0</v>
       </c>
-      <c r="H400" s="1" t="s">
-        <v>820</v>
+      <c r="H400" s="1">
+        <v>96</v>
       </c>
     </row>
     <row r="401" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">

--- a/database/seeds/users.xlsx
+++ b/database/seeds/users.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glenn/Documents/NUS/Hackers/eusoff/database/seeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE34C97-FC66-A640-BAF5-DC5ABAAF99A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194D5908-E769-8A49-AAAF-ADAFA64C5D80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="580" windowWidth="28800" windowHeight="16240" xr2:uid="{8DAFC702-1F3B-F547-BEBA-3024C546E2F5}"/>
+    <workbookView xWindow="9980" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{8DAFC702-1F3B-F547-BEBA-3024C546E2F5}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">users!$B$1:$C$406</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">users!$B$1:$B$406</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="821">
   <si>
     <t>id</t>
   </si>
@@ -2860,12 +2860,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="8" width="10.83203125" style="1"/>
     <col min="9" max="16384" width="14.5" style="1"/>
@@ -3023,8 +3023,8 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>820</v>
+      <c r="H6" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3049,8 +3049,8 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>820</v>
+      <c r="H7" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3725,8 +3725,8 @@
       <c r="G33" s="1">
         <v>0</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>820</v>
+      <c r="H33" s="1">
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3777,8 +3777,8 @@
       <c r="G35" s="1">
         <v>1</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>820</v>
+      <c r="H35" s="1">
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4427,8 +4427,8 @@
       <c r="G60" s="1">
         <v>0</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>820</v>
+      <c r="H60" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4479,8 +4479,8 @@
       <c r="G62" s="1">
         <v>0</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>820</v>
+      <c r="H62" s="1">
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4505,8 +4505,8 @@
       <c r="G63" s="1">
         <v>0</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>820</v>
+      <c r="H63" s="1">
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4869,8 +4869,8 @@
       <c r="G77" s="1">
         <v>1</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>820</v>
+      <c r="H77" s="1">
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4921,8 +4921,8 @@
       <c r="G79" s="1">
         <v>1</v>
       </c>
-      <c r="H79" s="1" t="s">
-        <v>820</v>
+      <c r="H79" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4973,8 +4973,8 @@
       <c r="G81" s="1">
         <v>0</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>820</v>
+      <c r="H81" s="1">
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5259,8 +5259,8 @@
       <c r="G92" s="1">
         <v>0</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>820</v>
+      <c r="H92" s="1">
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5311,8 +5311,8 @@
       <c r="G94" s="1">
         <v>0</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>820</v>
+      <c r="H94" s="1">
+        <v>33</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5696,13 +5696,13 @@
         <v>1</v>
       </c>
       <c r="F109" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G109" s="1">
         <v>0</v>
       </c>
-      <c r="H109" s="1" t="s">
-        <v>820</v>
+      <c r="H109" s="1">
+        <v>44</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5727,8 +5727,8 @@
       <c r="G110" s="1">
         <v>0</v>
       </c>
-      <c r="H110" s="1" t="s">
-        <v>820</v>
+      <c r="H110" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5857,8 +5857,8 @@
       <c r="G115" s="1">
         <v>0</v>
       </c>
-      <c r="H115" s="1" t="s">
-        <v>820</v>
+      <c r="H115" s="1">
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5909,8 +5909,8 @@
       <c r="G117" s="1">
         <v>1</v>
       </c>
-      <c r="H117" s="1" t="s">
-        <v>820</v>
+      <c r="H117" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5987,8 +5987,8 @@
       <c r="G120" s="1">
         <v>1</v>
       </c>
-      <c r="H120" s="1" t="s">
-        <v>820</v>
+      <c r="H120" s="1">
+        <v>94</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6065,8 +6065,8 @@
       <c r="G123" s="1">
         <v>0</v>
       </c>
-      <c r="H123" s="1" t="s">
-        <v>820</v>
+      <c r="H123" s="1">
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6247,8 +6247,8 @@
       <c r="G130" s="1">
         <v>0</v>
       </c>
-      <c r="H130" s="1" t="s">
-        <v>820</v>
+      <c r="H130" s="1">
+        <v>88</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6273,8 +6273,8 @@
       <c r="G131" s="1">
         <v>0</v>
       </c>
-      <c r="H131" s="1" t="s">
-        <v>820</v>
+      <c r="H131" s="1">
+        <v>62</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6299,8 +6299,8 @@
       <c r="G132" s="1">
         <v>0</v>
       </c>
-      <c r="H132" s="1" t="s">
-        <v>820</v>
+      <c r="H132" s="1">
+        <v>72</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6320,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="F133" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G133" s="1">
         <v>0</v>
@@ -6351,8 +6351,8 @@
       <c r="G134" s="1">
         <v>0</v>
       </c>
-      <c r="H134" s="1" t="s">
-        <v>820</v>
+      <c r="H134" s="1">
+        <v>70</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6377,8 +6377,8 @@
       <c r="G135" s="1">
         <v>0</v>
       </c>
-      <c r="H135" s="1" t="s">
-        <v>820</v>
+      <c r="H135" s="1">
+        <v>92</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6429,8 +6429,8 @@
       <c r="G137" s="1">
         <v>0</v>
       </c>
-      <c r="H137" s="1" t="s">
-        <v>820</v>
+      <c r="H137" s="1">
+        <v>91</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6455,8 +6455,8 @@
       <c r="G138" s="1">
         <v>0</v>
       </c>
-      <c r="H138" s="1" t="s">
-        <v>820</v>
+      <c r="H138" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6481,8 +6481,8 @@
       <c r="G139" s="1">
         <v>0</v>
       </c>
-      <c r="H139" s="1" t="s">
-        <v>820</v>
+      <c r="H139" s="1">
+        <v>39</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6507,8 +6507,8 @@
       <c r="G140" s="1">
         <v>0</v>
       </c>
-      <c r="H140" s="1" t="s">
-        <v>820</v>
+      <c r="H140" s="1">
+        <v>33</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6767,8 +6767,8 @@
       <c r="G150" s="1">
         <v>0</v>
       </c>
-      <c r="H150" s="1" t="s">
-        <v>820</v>
+      <c r="H150" s="1">
+        <v>21</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6819,8 +6819,8 @@
       <c r="G152" s="1">
         <v>0</v>
       </c>
-      <c r="H152" s="1" t="s">
-        <v>820</v>
+      <c r="H152" s="1">
+        <v>35</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6845,8 +6845,8 @@
       <c r="G153" s="1">
         <v>1</v>
       </c>
-      <c r="H153" s="1" t="s">
-        <v>820</v>
+      <c r="H153" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6949,8 +6949,8 @@
       <c r="G157" s="1">
         <v>0</v>
       </c>
-      <c r="H157" s="1" t="s">
-        <v>820</v>
+      <c r="H157" s="1">
+        <v>41</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7079,8 +7079,8 @@
       <c r="G162" s="1">
         <v>0</v>
       </c>
-      <c r="H162" s="1" t="s">
-        <v>820</v>
+      <c r="H162" s="1">
+        <v>64</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7105,8 +7105,8 @@
       <c r="G163" s="1">
         <v>1</v>
       </c>
-      <c r="H163" s="1" t="s">
-        <v>820</v>
+      <c r="H163" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7781,8 +7781,8 @@
       <c r="G189" s="1">
         <v>0</v>
       </c>
-      <c r="H189" s="1" t="s">
-        <v>820</v>
+      <c r="H189" s="1">
+        <v>64</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7807,8 +7807,8 @@
       <c r="G190" s="1">
         <v>0</v>
       </c>
-      <c r="H190" s="1" t="s">
-        <v>820</v>
+      <c r="H190" s="1">
+        <v>36</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7833,8 +7833,8 @@
       <c r="G191" s="1">
         <v>0</v>
       </c>
-      <c r="H191" s="1" t="s">
-        <v>820</v>
+      <c r="H191" s="1">
+        <v>67</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7859,8 +7859,8 @@
       <c r="G192" s="1">
         <v>0</v>
       </c>
-      <c r="H192" s="1" t="s">
-        <v>820</v>
+      <c r="H192" s="1">
+        <v>96</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7885,8 +7885,8 @@
       <c r="G193" s="1">
         <v>0</v>
       </c>
-      <c r="H193" s="1" t="s">
-        <v>820</v>
+      <c r="H193" s="1">
+        <v>38</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8171,8 +8171,8 @@
       <c r="G204" s="1">
         <v>0</v>
       </c>
-      <c r="H204" s="1" t="s">
-        <v>820</v>
+      <c r="H204" s="1">
+        <v>78</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8223,8 +8223,8 @@
       <c r="G206" s="1">
         <v>1</v>
       </c>
-      <c r="H206" s="1" t="s">
-        <v>820</v>
+      <c r="H206" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8249,8 +8249,8 @@
       <c r="G207" s="1">
         <v>0</v>
       </c>
-      <c r="H207" s="1" t="s">
-        <v>820</v>
+      <c r="H207" s="1">
+        <v>38</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8353,8 +8353,8 @@
       <c r="G211" s="1">
         <v>0</v>
       </c>
-      <c r="H211" s="1" t="s">
-        <v>820</v>
+      <c r="H211" s="1">
+        <v>99</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8405,8 +8405,8 @@
       <c r="G213" s="1">
         <v>0</v>
       </c>
-      <c r="H213" s="1" t="s">
-        <v>820</v>
+      <c r="H213" s="1">
+        <v>35</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8561,8 +8561,8 @@
       <c r="G219" s="1">
         <v>1</v>
       </c>
-      <c r="H219" s="1" t="s">
-        <v>820</v>
+      <c r="H219" s="1">
+        <v>74</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8587,8 +8587,8 @@
       <c r="G220" s="1">
         <v>0</v>
       </c>
-      <c r="H220" s="1" t="s">
-        <v>820</v>
+      <c r="H220" s="1">
+        <v>42</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8613,8 +8613,8 @@
       <c r="G221" s="1">
         <v>0</v>
       </c>
-      <c r="H221" s="1" t="s">
-        <v>820</v>
+      <c r="H221" s="1">
+        <v>36</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8639,8 +8639,8 @@
       <c r="G222" s="1">
         <v>0</v>
       </c>
-      <c r="H222" s="1" t="s">
-        <v>820</v>
+      <c r="H222" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8665,8 +8665,8 @@
       <c r="G223" s="1">
         <v>0</v>
       </c>
-      <c r="H223" s="1" t="s">
-        <v>820</v>
+      <c r="H223" s="1">
+        <v>39</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8691,8 +8691,8 @@
       <c r="G224" s="1">
         <v>0</v>
       </c>
-      <c r="H224" s="1" t="s">
-        <v>820</v>
+      <c r="H224" s="1">
+        <v>33</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8795,8 +8795,8 @@
       <c r="G228" s="1">
         <v>0</v>
       </c>
-      <c r="H228" s="1" t="s">
-        <v>820</v>
+      <c r="H228" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8821,8 +8821,8 @@
       <c r="G229" s="1">
         <v>0</v>
       </c>
-      <c r="H229" s="1" t="s">
-        <v>820</v>
+      <c r="H229" s="1">
+        <v>99</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8847,8 +8847,8 @@
       <c r="G230" s="1">
         <v>1</v>
       </c>
-      <c r="H230" s="1" t="s">
-        <v>820</v>
+      <c r="H230" s="1">
+        <v>79</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9003,8 +9003,8 @@
       <c r="G236" s="1">
         <v>1</v>
       </c>
-      <c r="H236" s="1" t="s">
-        <v>820</v>
+      <c r="H236" s="1">
+        <v>47</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9081,8 +9081,8 @@
       <c r="G239" s="1">
         <v>0</v>
       </c>
-      <c r="H239" s="1" t="s">
-        <v>820</v>
+      <c r="H239" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9107,8 +9107,8 @@
       <c r="G240" s="1">
         <v>0</v>
       </c>
-      <c r="H240" s="1" t="s">
-        <v>820</v>
+      <c r="H240" s="1">
+        <v>35</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9159,8 +9159,8 @@
       <c r="G242" s="1">
         <v>0</v>
       </c>
-      <c r="H242" s="1" t="s">
-        <v>820</v>
+      <c r="H242" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9211,8 +9211,8 @@
       <c r="G244" s="1">
         <v>1</v>
       </c>
-      <c r="H244" s="1" t="s">
-        <v>820</v>
+      <c r="H244" s="1">
+        <v>33</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9315,8 +9315,8 @@
       <c r="G248" s="1">
         <v>0</v>
       </c>
-      <c r="H248" s="1" t="s">
-        <v>820</v>
+      <c r="H248" s="1">
+        <v>43</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10225,8 +10225,8 @@
       <c r="G283" s="1">
         <v>1</v>
       </c>
-      <c r="H283" s="1" t="s">
-        <v>820</v>
+      <c r="H283" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="284" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10381,8 +10381,8 @@
       <c r="G289" s="1">
         <v>0</v>
       </c>
-      <c r="H289" s="1" t="s">
-        <v>820</v>
+      <c r="H289" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10485,8 +10485,8 @@
       <c r="G293" s="1">
         <v>0</v>
       </c>
-      <c r="H293" s="1" t="s">
-        <v>820</v>
+      <c r="H293" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10537,8 +10537,8 @@
       <c r="G295" s="1">
         <v>0</v>
       </c>
-      <c r="H295" s="1" t="s">
-        <v>820</v>
+      <c r="H295" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10563,8 +10563,8 @@
       <c r="G296" s="1">
         <v>0</v>
       </c>
-      <c r="H296" s="1" t="s">
-        <v>820</v>
+      <c r="H296" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10615,8 +10615,8 @@
       <c r="G298" s="1">
         <v>1</v>
       </c>
-      <c r="H298" s="1" t="s">
-        <v>820</v>
+      <c r="H298" s="1">
+        <v>72</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10641,8 +10641,8 @@
       <c r="G299" s="1">
         <v>0</v>
       </c>
-      <c r="H299" s="1" t="s">
-        <v>820</v>
+      <c r="H299" s="1">
+        <v>43</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10667,8 +10667,8 @@
       <c r="G300" s="1">
         <v>0</v>
       </c>
-      <c r="H300" s="1" t="s">
-        <v>820</v>
+      <c r="H300" s="1">
+        <v>53</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10693,8 +10693,8 @@
       <c r="G301" s="1">
         <v>0</v>
       </c>
-      <c r="H301" s="1" t="s">
-        <v>820</v>
+      <c r="H301" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10745,8 +10745,8 @@
       <c r="G303" s="1">
         <v>0</v>
       </c>
-      <c r="H303" s="1" t="s">
-        <v>820</v>
+      <c r="H303" s="1">
+        <v>84</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10771,8 +10771,8 @@
       <c r="G304" s="1">
         <v>1</v>
       </c>
-      <c r="H304" s="1" t="s">
-        <v>820</v>
+      <c r="H304" s="1">
+        <v>51</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10849,8 +10849,8 @@
       <c r="G307" s="1">
         <v>0</v>
       </c>
-      <c r="H307" s="1" t="s">
-        <v>820</v>
+      <c r="H307" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="308" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10979,8 +10979,8 @@
       <c r="G312" s="1">
         <v>1</v>
       </c>
-      <c r="H312" s="1" t="s">
-        <v>820</v>
+      <c r="H312" s="1">
+        <v>80</v>
       </c>
     </row>
     <row r="313" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11031,8 +11031,8 @@
       <c r="G314" s="1">
         <v>1</v>
       </c>
-      <c r="H314" s="1" t="s">
-        <v>820</v>
+      <c r="H314" s="1">
+        <v>58</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11213,8 +11213,8 @@
       <c r="G321" s="1">
         <v>0</v>
       </c>
-      <c r="H321" s="1" t="s">
-        <v>820</v>
+      <c r="H321" s="1">
+        <v>87</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11265,8 +11265,8 @@
       <c r="G323" s="1">
         <v>0</v>
       </c>
-      <c r="H323" s="1" t="s">
-        <v>820</v>
+      <c r="H323" s="1">
+        <v>34</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11317,8 +11317,8 @@
       <c r="G325" s="1">
         <v>0</v>
       </c>
-      <c r="H325" s="1" t="s">
-        <v>820</v>
+      <c r="H325" s="1">
+        <v>19</v>
       </c>
     </row>
     <row r="326" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11343,8 +11343,8 @@
       <c r="G326" s="1">
         <v>0</v>
       </c>
-      <c r="H326" s="1" t="s">
-        <v>820</v>
+      <c r="H326" s="1">
+        <v>33</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11647,7 +11647,7 @@
         <v>678</v>
       </c>
       <c r="E338" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F338" s="1">
         <v>3</v>
@@ -11655,8 +11655,8 @@
       <c r="G338" s="1">
         <v>1</v>
       </c>
-      <c r="H338" s="1" t="s">
-        <v>820</v>
+      <c r="H338" s="1">
+        <v>45</v>
       </c>
     </row>
     <row r="339" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12305,8 +12305,8 @@
       <c r="G363" s="1">
         <v>0</v>
       </c>
-      <c r="H363" s="1" t="s">
-        <v>820</v>
+      <c r="H363" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="364" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12383,8 +12383,8 @@
       <c r="G366" s="1">
         <v>0</v>
       </c>
-      <c r="H366" s="1" t="s">
-        <v>820</v>
+      <c r="H366" s="1">
+        <v>47</v>
       </c>
     </row>
     <row r="367" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12409,8 +12409,8 @@
       <c r="G367" s="1">
         <v>0</v>
       </c>
-      <c r="H367" s="1" t="s">
-        <v>820</v>
+      <c r="H367" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="368" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12643,8 +12643,8 @@
       <c r="G376" s="1">
         <v>1</v>
       </c>
-      <c r="H376" s="1" t="s">
-        <v>820</v>
+      <c r="H376" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="377" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12695,8 +12695,8 @@
       <c r="G378" s="1">
         <v>1</v>
       </c>
-      <c r="H378" s="1" t="s">
-        <v>820</v>
+      <c r="H378" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="379" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12747,8 +12747,8 @@
       <c r="G380" s="1">
         <v>1</v>
       </c>
-      <c r="H380" s="1" t="s">
-        <v>820</v>
+      <c r="H380" s="1">
+        <v>78</v>
       </c>
     </row>
     <row r="381" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12799,8 +12799,8 @@
       <c r="G382" s="1">
         <v>0</v>
       </c>
-      <c r="H382" s="1" t="s">
-        <v>820</v>
+      <c r="H382" s="1">
+        <v>50</v>
       </c>
     </row>
     <row r="383" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12851,8 +12851,8 @@
       <c r="G384" s="1">
         <v>0</v>
       </c>
-      <c r="H384" s="1" t="s">
-        <v>820</v>
+      <c r="H384" s="1">
+        <v>57</v>
       </c>
     </row>
     <row r="385" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12903,8 +12903,8 @@
       <c r="G386" s="1">
         <v>0</v>
       </c>
-      <c r="H386" s="1" t="s">
-        <v>820</v>
+      <c r="H386" s="1">
+        <v>97</v>
       </c>
     </row>
     <row r="387" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12981,8 +12981,8 @@
       <c r="G389" s="1">
         <v>0</v>
       </c>
-      <c r="H389" s="1" t="s">
-        <v>820</v>
+      <c r="H389" s="1">
+        <v>44</v>
       </c>
     </row>
     <row r="390" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -13007,8 +13007,8 @@
       <c r="G390" s="1">
         <v>0</v>
       </c>
-      <c r="H390" s="1" t="s">
-        <v>820</v>
+      <c r="H390" s="1">
+        <v>21</v>
       </c>
     </row>
     <row r="391" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -13059,8 +13059,8 @@
       <c r="G392" s="1">
         <v>0</v>
       </c>
-      <c r="H392" s="1" t="s">
-        <v>820</v>
+      <c r="H392" s="1">
+        <v>69</v>
       </c>
     </row>
     <row r="393" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -13345,8 +13345,8 @@
       <c r="G403" s="1">
         <v>0</v>
       </c>
-      <c r="H403" s="1" t="s">
-        <v>820</v>
+      <c r="H403" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="404" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -13397,8 +13397,8 @@
       <c r="G405" s="1">
         <v>1</v>
       </c>
-      <c r="H405" s="1" t="s">
-        <v>820</v>
+      <c r="H405" s="1">
+        <v>99</v>
       </c>
     </row>
     <row r="406" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">

--- a/database/seeds/users.xlsx
+++ b/database/seeds/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glenn/Documents/NUS/Hackers/eusoff/database/seeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194D5908-E769-8A49-AAAF-ADAFA64C5D80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD500B26-595F-E74A-8E6A-6FCE6C1D109D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{8DAFC702-1F3B-F547-BEBA-3024C546E2F5}"/>
+    <workbookView xWindow="9600" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{8DAFC702-1F3B-F547-BEBA-3024C546E2F5}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -2859,8 +2859,8 @@
   <dimension ref="A1:H406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H296" sqref="H296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10564,7 +10564,7 @@
         <v>0</v>
       </c>
       <c r="H296" s="1">
-        <v>13</v>
+        <v>71</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10694,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="H301" s="1">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">

--- a/database/seeds/users.xlsx
+++ b/database/seeds/users.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glenn/Documents/NUS/Hackers/eusoff/database/seeds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD500B26-595F-E74A-8E6A-6FCE6C1D109D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F601E5EB-9DB5-8942-9B96-B21E51768FF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{8DAFC702-1F3B-F547-BEBA-3024C546E2F5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" xr2:uid="{8DAFC702-1F3B-F547-BEBA-3024C546E2F5}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">users!$B$1:$B$406</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">users!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="820">
   <si>
     <t>id</t>
   </si>
@@ -2496,9 +2496,6 @@
   </si>
   <si>
     <t>allocated_number</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
 </sst>
 </file>
@@ -2860,7 +2857,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A279" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H296" sqref="H296"/>
+      <selection pane="bottomLeft" activeCell="F292" sqref="F292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2919,8 +2916,8 @@
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>820</v>
+      <c r="H2" s="1">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2945,8 +2942,8 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>820</v>
+      <c r="H3" s="1">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2971,8 +2968,8 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>820</v>
+      <c r="H4" s="1">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2997,8 +2994,8 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>820</v>
+      <c r="H5" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3075,8 +3072,8 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>820</v>
+      <c r="H8" s="1">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3101,8 +3098,8 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>820</v>
+      <c r="H9" s="1">
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3127,8 +3124,8 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>820</v>
+      <c r="H10" s="1">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3153,8 +3150,8 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>820</v>
+      <c r="H11" s="1">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3179,8 +3176,8 @@
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>820</v>
+      <c r="H12" s="1">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3205,8 +3202,8 @@
       <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>820</v>
+      <c r="H13" s="1">
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3231,8 +3228,8 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>820</v>
+      <c r="H14" s="1">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3257,8 +3254,8 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>820</v>
+      <c r="H15" s="1">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3283,8 +3280,8 @@
       <c r="G16" s="1">
         <v>0</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>820</v>
+      <c r="H16" s="1">
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3309,8 +3306,8 @@
       <c r="G17" s="1">
         <v>0</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>820</v>
+      <c r="H17" s="1">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3335,8 +3332,8 @@
       <c r="G18" s="1">
         <v>0</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>820</v>
+      <c r="H18" s="1">
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3361,8 +3358,8 @@
       <c r="G19" s="1">
         <v>0</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>820</v>
+      <c r="H19" s="1">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3413,8 +3410,8 @@
       <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>820</v>
+      <c r="H21" s="1">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3439,8 +3436,8 @@
       <c r="G22" s="1">
         <v>0</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>820</v>
+      <c r="H22" s="1">
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3465,8 +3462,8 @@
       <c r="G23" s="1">
         <v>0</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>820</v>
+      <c r="H23" s="1">
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3491,8 +3488,8 @@
       <c r="G24" s="1">
         <v>0</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>820</v>
+      <c r="H24" s="1">
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3517,8 +3514,8 @@
       <c r="G25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>820</v>
+      <c r="H25" s="1">
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3543,8 +3540,8 @@
       <c r="G26" s="1">
         <v>0</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>820</v>
+      <c r="H26" s="1">
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3569,8 +3566,8 @@
       <c r="G27" s="1">
         <v>0</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>820</v>
+      <c r="H27" s="1">
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3595,8 +3592,8 @@
       <c r="G28" s="1">
         <v>0</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>820</v>
+      <c r="H28" s="1">
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3621,8 +3618,8 @@
       <c r="G29" s="1">
         <v>0</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>820</v>
+      <c r="H29" s="1">
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3647,8 +3644,8 @@
       <c r="G30" s="1">
         <v>0</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>820</v>
+      <c r="H30" s="1">
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3673,8 +3670,8 @@
       <c r="G31" s="1">
         <v>0</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>820</v>
+      <c r="H31" s="1">
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3699,8 +3696,8 @@
       <c r="G32" s="1">
         <v>0</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>820</v>
+      <c r="H32" s="1">
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3751,8 +3748,8 @@
       <c r="G34" s="1">
         <v>0</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>820</v>
+      <c r="H34" s="1">
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3803,8 +3800,8 @@
       <c r="G36" s="1">
         <v>0</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>820</v>
+      <c r="H36" s="1">
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3829,8 +3826,8 @@
       <c r="G37" s="1">
         <v>0</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>820</v>
+      <c r="H37" s="1">
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3855,8 +3852,8 @@
       <c r="G38" s="1">
         <v>0</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>820</v>
+      <c r="H38" s="1">
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -3881,8 +3878,8 @@
       <c r="G39" s="1">
         <v>0</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>820</v>
+      <c r="H39" s="1">
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4141,8 +4138,8 @@
       <c r="G49" s="1">
         <v>1</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>820</v>
+      <c r="H49" s="1">
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4167,8 +4164,8 @@
       <c r="G50" s="1">
         <v>0</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>820</v>
+      <c r="H50" s="1">
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4193,8 +4190,8 @@
       <c r="G51" s="1">
         <v>0</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>820</v>
+      <c r="H51" s="1">
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4219,8 +4216,8 @@
       <c r="G52" s="1">
         <v>0</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>820</v>
+      <c r="H52" s="1">
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4245,8 +4242,8 @@
       <c r="G53" s="1">
         <v>0</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>820</v>
+      <c r="H53" s="1">
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4297,8 +4294,8 @@
       <c r="G55" s="1">
         <v>0</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>820</v>
+      <c r="H55" s="1">
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4531,8 +4528,8 @@
       <c r="G64" s="1">
         <v>0</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>820</v>
+      <c r="H64" s="1">
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4557,8 +4554,8 @@
       <c r="G65" s="1">
         <v>0</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>820</v>
+      <c r="H65" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4583,8 +4580,8 @@
       <c r="G66" s="1">
         <v>0</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>820</v>
+      <c r="H66" s="1">
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4609,8 +4606,8 @@
       <c r="G67" s="1">
         <v>0</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>820</v>
+      <c r="H67" s="1">
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4661,8 +4658,8 @@
       <c r="G69" s="1">
         <v>0</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>820</v>
+      <c r="H69" s="1">
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4687,8 +4684,8 @@
       <c r="G70" s="1">
         <v>1</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>820</v>
+      <c r="H70" s="1">
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4739,8 +4736,8 @@
       <c r="G72" s="1">
         <v>0</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>820</v>
+      <c r="H72" s="1">
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4817,8 +4814,8 @@
       <c r="G75" s="1">
         <v>0</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>820</v>
+      <c r="H75" s="1">
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4843,8 +4840,8 @@
       <c r="G76" s="1">
         <v>1</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>820</v>
+      <c r="H76" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4895,8 +4892,8 @@
       <c r="G78" s="1">
         <v>0</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>820</v>
+      <c r="H78" s="1">
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4947,8 +4944,8 @@
       <c r="G80" s="1">
         <v>1</v>
       </c>
-      <c r="H80" s="1" t="s">
-        <v>820</v>
+      <c r="H80" s="1">
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5025,8 +5022,8 @@
       <c r="G83" s="1">
         <v>0</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>820</v>
+      <c r="H83" s="1">
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5077,8 +5074,8 @@
       <c r="G85" s="1">
         <v>0</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>820</v>
+      <c r="H85" s="1">
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5103,8 +5100,8 @@
       <c r="G86" s="1">
         <v>0</v>
       </c>
-      <c r="H86" s="1" t="s">
-        <v>820</v>
+      <c r="H86" s="1">
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5129,8 +5126,8 @@
       <c r="G87" s="1">
         <v>0</v>
       </c>
-      <c r="H87" s="1" t="s">
-        <v>820</v>
+      <c r="H87" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5155,8 +5152,8 @@
       <c r="G88" s="1">
         <v>0</v>
       </c>
-      <c r="H88" s="1" t="s">
-        <v>820</v>
+      <c r="H88" s="1">
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5181,8 +5178,8 @@
       <c r="G89" s="1">
         <v>0</v>
       </c>
-      <c r="H89" s="1" t="s">
-        <v>820</v>
+      <c r="H89" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5207,8 +5204,8 @@
       <c r="G90" s="1">
         <v>0</v>
       </c>
-      <c r="H90" s="1" t="s">
-        <v>820</v>
+      <c r="H90" s="1">
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5233,8 +5230,8 @@
       <c r="G91" s="1">
         <v>0</v>
       </c>
-      <c r="H91" s="1" t="s">
-        <v>820</v>
+      <c r="H91" s="1">
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5285,8 +5282,8 @@
       <c r="G93" s="1">
         <v>0</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>820</v>
+      <c r="H93" s="1">
+        <v>59</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5337,8 +5334,8 @@
       <c r="G95" s="1">
         <v>0</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>820</v>
+      <c r="H95" s="1">
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5363,8 +5360,8 @@
       <c r="G96" s="1">
         <v>0</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>820</v>
+      <c r="H96" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5389,8 +5386,8 @@
       <c r="G97" s="1">
         <v>0</v>
       </c>
-      <c r="H97" s="1" t="s">
-        <v>820</v>
+      <c r="H97" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5415,8 +5412,8 @@
       <c r="G98" s="1">
         <v>1</v>
       </c>
-      <c r="H98" s="1" t="s">
-        <v>820</v>
+      <c r="H98" s="1">
+        <v>28</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5441,8 +5438,8 @@
       <c r="G99" s="1">
         <v>0</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>820</v>
+      <c r="H99" s="1">
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5467,8 +5464,8 @@
       <c r="G100" s="1">
         <v>0</v>
       </c>
-      <c r="H100" s="1" t="s">
-        <v>820</v>
+      <c r="H100" s="1">
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5493,8 +5490,8 @@
       <c r="G101" s="1">
         <v>0</v>
       </c>
-      <c r="H101" s="1" t="s">
-        <v>820</v>
+      <c r="H101" s="1">
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5519,8 +5516,8 @@
       <c r="G102" s="1">
         <v>0</v>
       </c>
-      <c r="H102" s="1" t="s">
-        <v>820</v>
+      <c r="H102" s="1">
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5545,8 +5542,8 @@
       <c r="G103" s="1">
         <v>0</v>
       </c>
-      <c r="H103" s="1" t="s">
-        <v>820</v>
+      <c r="H103" s="1">
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5571,8 +5568,8 @@
       <c r="G104" s="1">
         <v>0</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>820</v>
+      <c r="H104" s="1">
+        <v>86</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5597,8 +5594,8 @@
       <c r="G105" s="1">
         <v>0</v>
       </c>
-      <c r="H105" s="1" t="s">
-        <v>820</v>
+      <c r="H105" s="1">
+        <v>54</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5623,8 +5620,8 @@
       <c r="G106" s="1">
         <v>0</v>
       </c>
-      <c r="H106" s="1" t="s">
-        <v>820</v>
+      <c r="H106" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5649,8 +5646,8 @@
       <c r="G107" s="1">
         <v>1</v>
       </c>
-      <c r="H107" s="1" t="s">
-        <v>820</v>
+      <c r="H107" s="1">
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5675,8 +5672,8 @@
       <c r="G108" s="1">
         <v>0</v>
       </c>
-      <c r="H108" s="1" t="s">
-        <v>820</v>
+      <c r="H108" s="1">
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5753,8 +5750,8 @@
       <c r="G111" s="1">
         <v>0</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>820</v>
+      <c r="H111" s="1">
+        <v>76</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5779,8 +5776,8 @@
       <c r="G112" s="1">
         <v>0</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>820</v>
+      <c r="H112" s="1">
+        <v>49</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5805,8 +5802,8 @@
       <c r="G113" s="1">
         <v>1</v>
       </c>
-      <c r="H113" s="1" t="s">
-        <v>820</v>
+      <c r="H113" s="1">
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5831,8 +5828,8 @@
       <c r="G114" s="1">
         <v>0</v>
       </c>
-      <c r="H114" s="1" t="s">
-        <v>820</v>
+      <c r="H114" s="1">
+        <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5883,8 +5880,8 @@
       <c r="G116" s="1">
         <v>1</v>
       </c>
-      <c r="H116" s="1" t="s">
-        <v>820</v>
+      <c r="H116" s="1">
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5935,8 +5932,8 @@
       <c r="G118" s="1">
         <v>0</v>
       </c>
-      <c r="H118" s="1" t="s">
-        <v>820</v>
+      <c r="H118" s="1">
+        <v>81</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5961,8 +5958,8 @@
       <c r="G119" s="1">
         <v>0</v>
       </c>
-      <c r="H119" s="1" t="s">
-        <v>820</v>
+      <c r="H119" s="1">
+        <v>85</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6013,8 +6010,8 @@
       <c r="G121" s="1">
         <v>1</v>
       </c>
-      <c r="H121" s="1" t="s">
-        <v>820</v>
+      <c r="H121" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6039,8 +6036,8 @@
       <c r="G122" s="1">
         <v>1</v>
       </c>
-      <c r="H122" s="1" t="s">
-        <v>820</v>
+      <c r="H122" s="1">
+        <v>61</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6143,8 +6140,8 @@
       <c r="G126" s="1">
         <v>0</v>
       </c>
-      <c r="H126" s="1" t="s">
-        <v>820</v>
+      <c r="H126" s="1">
+        <v>86</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6169,8 +6166,8 @@
       <c r="G127" s="1">
         <v>0</v>
       </c>
-      <c r="H127" s="1" t="s">
-        <v>820</v>
+      <c r="H127" s="1">
+        <v>87</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6195,8 +6192,8 @@
       <c r="G128" s="1">
         <v>1</v>
       </c>
-      <c r="H128" s="1" t="s">
-        <v>820</v>
+      <c r="H128" s="1">
+        <v>87</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6221,8 +6218,8 @@
       <c r="G129" s="1">
         <v>1</v>
       </c>
-      <c r="H129" s="1" t="s">
-        <v>820</v>
+      <c r="H129" s="1">
+        <v>98</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6325,8 +6322,8 @@
       <c r="G133" s="1">
         <v>0</v>
       </c>
-      <c r="H133" s="1" t="s">
-        <v>820</v>
+      <c r="H133" s="1">
+        <v>73</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6403,8 +6400,8 @@
       <c r="G136" s="1">
         <v>0</v>
       </c>
-      <c r="H136" s="1" t="s">
-        <v>820</v>
+      <c r="H136" s="1">
+        <v>52</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6533,8 +6530,8 @@
       <c r="G141" s="1">
         <v>1</v>
       </c>
-      <c r="H141" s="1" t="s">
-        <v>820</v>
+      <c r="H141" s="1">
+        <v>34</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6559,8 +6556,8 @@
       <c r="G142" s="1">
         <v>0</v>
       </c>
-      <c r="H142" s="1" t="s">
-        <v>820</v>
+      <c r="H142" s="1">
+        <v>36</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6585,8 +6582,8 @@
       <c r="G143" s="1">
         <v>0</v>
       </c>
-      <c r="H143" s="1" t="s">
-        <v>820</v>
+      <c r="H143" s="1">
+        <v>62</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6637,8 +6634,8 @@
       <c r="G145" s="1">
         <v>0</v>
       </c>
-      <c r="H145" s="1" t="s">
-        <v>820</v>
+      <c r="H145" s="1">
+        <v>52</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6663,8 +6660,8 @@
       <c r="G146" s="1">
         <v>0</v>
       </c>
-      <c r="H146" s="1" t="s">
-        <v>820</v>
+      <c r="H146" s="1">
+        <v>68</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6689,8 +6686,8 @@
       <c r="G147" s="1">
         <v>0</v>
       </c>
-      <c r="H147" s="1" t="s">
-        <v>820</v>
+      <c r="H147" s="1">
+        <v>53</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6715,8 +6712,8 @@
       <c r="G148" s="1">
         <v>0</v>
       </c>
-      <c r="H148" s="1" t="s">
-        <v>820</v>
+      <c r="H148" s="1">
+        <v>83</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6741,8 +6738,8 @@
       <c r="G149" s="1">
         <v>0</v>
       </c>
-      <c r="H149" s="1" t="s">
-        <v>820</v>
+      <c r="H149" s="1">
+        <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6793,8 +6790,8 @@
       <c r="G151" s="1">
         <v>0</v>
       </c>
-      <c r="H151" s="1" t="s">
-        <v>820</v>
+      <c r="H151" s="1">
+        <v>78</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7001,8 +6998,8 @@
       <c r="G159" s="1">
         <v>1</v>
       </c>
-      <c r="H159" s="1" t="s">
-        <v>820</v>
+      <c r="H159" s="1">
+        <v>92</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7053,8 +7050,8 @@
       <c r="G161" s="1">
         <v>0</v>
       </c>
-      <c r="H161" s="1" t="s">
-        <v>820</v>
+      <c r="H161" s="1">
+        <v>95</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7131,8 +7128,8 @@
       <c r="G164" s="1">
         <v>1</v>
       </c>
-      <c r="H164" s="1" t="s">
-        <v>820</v>
+      <c r="H164" s="1">
+        <v>82</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7157,8 +7154,8 @@
       <c r="G165" s="1">
         <v>0</v>
       </c>
-      <c r="H165" s="1" t="s">
-        <v>820</v>
+      <c r="H165" s="1">
+        <v>91</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7183,8 +7180,8 @@
       <c r="G166" s="1">
         <v>0</v>
       </c>
-      <c r="H166" s="1" t="s">
-        <v>820</v>
+      <c r="H166" s="1">
+        <v>38</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7209,8 +7206,8 @@
       <c r="G167" s="1">
         <v>0</v>
       </c>
-      <c r="H167" s="1" t="s">
-        <v>820</v>
+      <c r="H167" s="1">
+        <v>52</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7235,8 +7232,8 @@
       <c r="G168" s="1">
         <v>0</v>
       </c>
-      <c r="H168" s="1" t="s">
-        <v>820</v>
+      <c r="H168" s="1">
+        <v>65</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7261,8 +7258,8 @@
       <c r="G169" s="1">
         <v>1</v>
       </c>
-      <c r="H169" s="1" t="s">
-        <v>820</v>
+      <c r="H169" s="1">
+        <v>61</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7287,8 +7284,8 @@
       <c r="G170" s="1">
         <v>0</v>
       </c>
-      <c r="H170" s="1" t="s">
-        <v>820</v>
+      <c r="H170" s="1">
+        <v>94</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7313,8 +7310,8 @@
       <c r="G171" s="1">
         <v>0</v>
       </c>
-      <c r="H171" s="1" t="s">
-        <v>820</v>
+      <c r="H171" s="1">
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7339,8 +7336,8 @@
       <c r="G172" s="1">
         <v>1</v>
       </c>
-      <c r="H172" s="1" t="s">
-        <v>820</v>
+      <c r="H172" s="1">
+        <v>36</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7365,8 +7362,8 @@
       <c r="G173" s="1">
         <v>1</v>
       </c>
-      <c r="H173" s="1" t="s">
-        <v>820</v>
+      <c r="H173" s="1">
+        <v>83</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7391,8 +7388,8 @@
       <c r="G174" s="1">
         <v>0</v>
       </c>
-      <c r="H174" s="1" t="s">
-        <v>820</v>
+      <c r="H174" s="1">
+        <v>94</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7417,8 +7414,8 @@
       <c r="G175" s="1">
         <v>0</v>
       </c>
-      <c r="H175" s="1" t="s">
-        <v>820</v>
+      <c r="H175" s="1">
+        <v>83</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7443,8 +7440,8 @@
       <c r="G176" s="1">
         <v>0</v>
       </c>
-      <c r="H176" s="1" t="s">
-        <v>820</v>
+      <c r="H176" s="1">
+        <v>92</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7469,8 +7466,8 @@
       <c r="G177" s="1">
         <v>0</v>
       </c>
-      <c r="H177" s="1" t="s">
-        <v>820</v>
+      <c r="H177" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7495,8 +7492,8 @@
       <c r="G178" s="1">
         <v>0</v>
       </c>
-      <c r="H178" s="1" t="s">
-        <v>820</v>
+      <c r="H178" s="1">
+        <v>86</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7521,8 +7518,8 @@
       <c r="G179" s="1">
         <v>0</v>
       </c>
-      <c r="H179" s="1" t="s">
-        <v>820</v>
+      <c r="H179" s="1">
+        <v>95</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7547,8 +7544,8 @@
       <c r="G180" s="1">
         <v>0</v>
       </c>
-      <c r="H180" s="1" t="s">
-        <v>820</v>
+      <c r="H180" s="1">
+        <v>95</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7573,8 +7570,8 @@
       <c r="G181" s="1">
         <v>0</v>
       </c>
-      <c r="H181" s="1" t="s">
-        <v>820</v>
+      <c r="H181" s="1">
+        <v>81</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7599,8 +7596,8 @@
       <c r="G182" s="1">
         <v>0</v>
       </c>
-      <c r="H182" s="1" t="s">
-        <v>820</v>
+      <c r="H182" s="1">
+        <v>74</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7625,8 +7622,8 @@
       <c r="G183" s="1">
         <v>0</v>
       </c>
-      <c r="H183" s="1" t="s">
-        <v>820</v>
+      <c r="H183" s="1">
+        <v>69</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7651,8 +7648,8 @@
       <c r="G184" s="1">
         <v>0</v>
       </c>
-      <c r="H184" s="1" t="s">
-        <v>820</v>
+      <c r="H184" s="1">
+        <v>89</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7677,8 +7674,8 @@
       <c r="G185" s="1">
         <v>0</v>
       </c>
-      <c r="H185" s="1" t="s">
-        <v>820</v>
+      <c r="H185" s="1">
+        <v>61</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7703,8 +7700,8 @@
       <c r="G186" s="1">
         <v>0</v>
       </c>
-      <c r="H186" s="1" t="s">
-        <v>820</v>
+      <c r="H186" s="1">
+        <v>56</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7729,8 +7726,8 @@
       <c r="G187" s="1">
         <v>0</v>
       </c>
-      <c r="H187" s="1" t="s">
-        <v>820</v>
+      <c r="H187" s="1">
+        <v>48</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7755,8 +7752,8 @@
       <c r="G188" s="1">
         <v>0</v>
       </c>
-      <c r="H188" s="1" t="s">
-        <v>820</v>
+      <c r="H188" s="1">
+        <v>57</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7911,8 +7908,8 @@
       <c r="G194" s="1">
         <v>0</v>
       </c>
-      <c r="H194" s="1" t="s">
-        <v>820</v>
+      <c r="H194" s="1">
+        <v>46</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7937,8 +7934,8 @@
       <c r="G195" s="1">
         <v>0</v>
       </c>
-      <c r="H195" s="1" t="s">
-        <v>820</v>
+      <c r="H195" s="1">
+        <v>61</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7963,8 +7960,8 @@
       <c r="G196" s="1">
         <v>0</v>
       </c>
-      <c r="H196" s="1" t="s">
-        <v>820</v>
+      <c r="H196" s="1">
+        <v>58</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7989,8 +7986,8 @@
       <c r="G197" s="1">
         <v>0</v>
       </c>
-      <c r="H197" s="1" t="s">
-        <v>820</v>
+      <c r="H197" s="1">
+        <v>89</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8015,8 +8012,8 @@
       <c r="G198" s="1">
         <v>0</v>
       </c>
-      <c r="H198" s="1" t="s">
-        <v>820</v>
+      <c r="H198" s="1">
+        <v>85</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8041,8 +8038,8 @@
       <c r="G199" s="1">
         <v>0</v>
       </c>
-      <c r="H199" s="1" t="s">
-        <v>820</v>
+      <c r="H199" s="1">
+        <v>63</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8067,8 +8064,8 @@
       <c r="G200" s="1">
         <v>0</v>
       </c>
-      <c r="H200" s="1" t="s">
-        <v>820</v>
+      <c r="H200" s="1">
+        <v>29</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8093,8 +8090,8 @@
       <c r="G201" s="1">
         <v>0</v>
       </c>
-      <c r="H201" s="1" t="s">
-        <v>820</v>
+      <c r="H201" s="1">
+        <v>76</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8119,8 +8116,8 @@
       <c r="G202" s="1">
         <v>1</v>
       </c>
-      <c r="H202" s="1" t="s">
-        <v>820</v>
+      <c r="H202" s="1">
+        <v>46</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8145,8 +8142,8 @@
       <c r="G203" s="1">
         <v>0</v>
       </c>
-      <c r="H203" s="1" t="s">
-        <v>820</v>
+      <c r="H203" s="1">
+        <v>93</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8275,8 +8272,8 @@
       <c r="G208" s="1">
         <v>0</v>
       </c>
-      <c r="H208" s="1" t="s">
-        <v>820</v>
+      <c r="H208" s="1">
+        <v>90</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8301,8 +8298,8 @@
       <c r="G209" s="1">
         <v>0</v>
       </c>
-      <c r="H209" s="1" t="s">
-        <v>820</v>
+      <c r="H209" s="1">
+        <v>69</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8327,8 +8324,8 @@
       <c r="G210" s="1">
         <v>0</v>
       </c>
-      <c r="H210" s="1" t="s">
-        <v>820</v>
+      <c r="H210" s="1">
+        <v>97</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8379,8 +8376,8 @@
       <c r="G212" s="1">
         <v>0</v>
       </c>
-      <c r="H212" s="1" t="s">
-        <v>820</v>
+      <c r="H212" s="1">
+        <v>83</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8457,8 +8454,8 @@
       <c r="G215" s="1">
         <v>0</v>
       </c>
-      <c r="H215" s="1" t="s">
-        <v>820</v>
+      <c r="H215" s="1">
+        <v>98</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8483,8 +8480,8 @@
       <c r="G216" s="1">
         <v>0</v>
       </c>
-      <c r="H216" s="1" t="s">
-        <v>820</v>
+      <c r="H216" s="1">
+        <v>34</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8509,8 +8506,8 @@
       <c r="G217" s="1">
         <v>0</v>
       </c>
-      <c r="H217" s="1" t="s">
-        <v>820</v>
+      <c r="H217" s="1">
+        <v>29</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8535,8 +8532,8 @@
       <c r="G218" s="1">
         <v>0</v>
       </c>
-      <c r="H218" s="1" t="s">
-        <v>820</v>
+      <c r="H218" s="1">
+        <v>97</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8717,8 +8714,8 @@
       <c r="G225" s="1">
         <v>0</v>
       </c>
-      <c r="H225" s="1" t="s">
-        <v>820</v>
+      <c r="H225" s="1">
+        <v>48</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8743,8 +8740,8 @@
       <c r="G226" s="1">
         <v>0</v>
       </c>
-      <c r="H226" s="1" t="s">
-        <v>820</v>
+      <c r="H226" s="1">
+        <v>49</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8769,8 +8766,8 @@
       <c r="G227" s="1">
         <v>0</v>
       </c>
-      <c r="H227" s="1" t="s">
-        <v>820</v>
+      <c r="H227" s="1">
+        <v>28</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8951,8 +8948,8 @@
       <c r="G234" s="1">
         <v>1</v>
       </c>
-      <c r="H234" s="1" t="s">
-        <v>820</v>
+      <c r="H234" s="1">
+        <v>85</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8977,8 +8974,8 @@
       <c r="G235" s="1">
         <v>0</v>
       </c>
-      <c r="H235" s="1" t="s">
-        <v>820</v>
+      <c r="H235" s="1">
+        <v>28</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9029,8 +9026,8 @@
       <c r="G237" s="1">
         <v>0</v>
       </c>
-      <c r="H237" s="1" t="s">
-        <v>820</v>
+      <c r="H237" s="1">
+        <v>72</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9055,8 +9052,8 @@
       <c r="G238" s="1">
         <v>0</v>
       </c>
-      <c r="H238" s="1" t="s">
-        <v>820</v>
+      <c r="H238" s="1">
+        <v>89</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9133,8 +9130,8 @@
       <c r="G241" s="1">
         <v>0</v>
       </c>
-      <c r="H241" s="1" t="s">
-        <v>820</v>
+      <c r="H241" s="1">
+        <v>48</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9185,8 +9182,8 @@
       <c r="G243" s="1">
         <v>0</v>
       </c>
-      <c r="H243" s="1" t="s">
-        <v>820</v>
+      <c r="H243" s="1">
+        <v>56</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9237,8 +9234,8 @@
       <c r="G245" s="1">
         <v>0</v>
       </c>
-      <c r="H245" s="1" t="s">
-        <v>820</v>
+      <c r="H245" s="1">
+        <v>73</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9341,8 +9338,8 @@
       <c r="G249" s="1">
         <v>0</v>
       </c>
-      <c r="H249" s="1" t="s">
-        <v>820</v>
+      <c r="H249" s="1">
+        <v>78</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9367,8 +9364,8 @@
       <c r="G250" s="1">
         <v>0</v>
       </c>
-      <c r="H250" s="1" t="s">
-        <v>820</v>
+      <c r="H250" s="1">
+        <v>93</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9393,8 +9390,8 @@
       <c r="G251" s="1">
         <v>0</v>
       </c>
-      <c r="H251" s="1" t="s">
-        <v>820</v>
+      <c r="H251" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9419,8 +9416,8 @@
       <c r="G252" s="1">
         <v>1</v>
       </c>
-      <c r="H252" s="1" t="s">
-        <v>820</v>
+      <c r="H252" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9445,8 +9442,8 @@
       <c r="G253" s="1">
         <v>1</v>
       </c>
-      <c r="H253" s="1" t="s">
-        <v>820</v>
+      <c r="H253" s="1">
+        <v>37</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9471,8 +9468,8 @@
       <c r="G254" s="1">
         <v>0</v>
       </c>
-      <c r="H254" s="1" t="s">
-        <v>820</v>
+      <c r="H254" s="1">
+        <v>93</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9497,8 +9494,8 @@
       <c r="G255" s="1">
         <v>0</v>
       </c>
-      <c r="H255" s="1" t="s">
-        <v>820</v>
+      <c r="H255" s="1">
+        <v>76</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9523,8 +9520,8 @@
       <c r="G256" s="1">
         <v>0</v>
       </c>
-      <c r="H256" s="1" t="s">
-        <v>820</v>
+      <c r="H256" s="1">
+        <v>94</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9549,8 +9546,8 @@
       <c r="G257" s="1">
         <v>0</v>
       </c>
-      <c r="H257" s="1" t="s">
-        <v>820</v>
+      <c r="H257" s="1">
+        <v>52</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9575,8 +9572,8 @@
       <c r="G258" s="1">
         <v>1</v>
       </c>
-      <c r="H258" s="1" t="s">
-        <v>820</v>
+      <c r="H258" s="1">
+        <v>89</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9601,8 +9598,8 @@
       <c r="G259" s="1">
         <v>0</v>
       </c>
-      <c r="H259" s="1" t="s">
-        <v>820</v>
+      <c r="H259" s="1">
+        <v>66</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9627,8 +9624,8 @@
       <c r="G260" s="1">
         <v>0</v>
       </c>
-      <c r="H260" s="1" t="s">
-        <v>820</v>
+      <c r="H260" s="1">
+        <v>36</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9653,8 +9650,8 @@
       <c r="G261" s="1">
         <v>0</v>
       </c>
-      <c r="H261" s="1" t="s">
-        <v>820</v>
+      <c r="H261" s="1">
+        <v>92</v>
       </c>
     </row>
     <row r="262" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9679,8 +9676,8 @@
       <c r="G262" s="1">
         <v>0</v>
       </c>
-      <c r="H262" s="1" t="s">
-        <v>820</v>
+      <c r="H262" s="1">
+        <v>56</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9705,8 +9702,8 @@
       <c r="G263" s="1">
         <v>0</v>
       </c>
-      <c r="H263" s="1" t="s">
-        <v>820</v>
+      <c r="H263" s="1">
+        <v>76</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9731,8 +9728,8 @@
       <c r="G264" s="1">
         <v>0</v>
       </c>
-      <c r="H264" s="1" t="s">
-        <v>820</v>
+      <c r="H264" s="1">
+        <v>51</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9757,8 +9754,8 @@
       <c r="G265" s="1">
         <v>0</v>
       </c>
-      <c r="H265" s="1" t="s">
-        <v>820</v>
+      <c r="H265" s="1">
+        <v>82</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9783,8 +9780,8 @@
       <c r="G266" s="1">
         <v>0</v>
       </c>
-      <c r="H266" s="1" t="s">
-        <v>820</v>
+      <c r="H266" s="1">
+        <v>52</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9809,8 +9806,8 @@
       <c r="G267" s="1">
         <v>0</v>
       </c>
-      <c r="H267" s="1" t="s">
-        <v>820</v>
+      <c r="H267" s="1">
+        <v>54</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9835,8 +9832,8 @@
       <c r="G268" s="1">
         <v>0</v>
       </c>
-      <c r="H268" s="1" t="s">
-        <v>820</v>
+      <c r="H268" s="1">
+        <v>56</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9861,8 +9858,8 @@
       <c r="G269" s="1">
         <v>0</v>
       </c>
-      <c r="H269" s="1" t="s">
-        <v>820</v>
+      <c r="H269" s="1">
+        <v>84</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9913,8 +9910,8 @@
       <c r="G271" s="1">
         <v>0</v>
       </c>
-      <c r="H271" s="1" t="s">
-        <v>820</v>
+      <c r="H271" s="1">
+        <v>57</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9939,8 +9936,8 @@
       <c r="G272" s="1">
         <v>0</v>
       </c>
-      <c r="H272" s="1" t="s">
-        <v>820</v>
+      <c r="H272" s="1">
+        <v>83</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9965,8 +9962,8 @@
       <c r="G273" s="1">
         <v>0</v>
       </c>
-      <c r="H273" s="1" t="s">
-        <v>820</v>
+      <c r="H273" s="1">
+        <v>59</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10017,8 +10014,8 @@
       <c r="G275" s="1">
         <v>0</v>
       </c>
-      <c r="H275" s="1" t="s">
-        <v>820</v>
+      <c r="H275" s="1">
+        <v>58</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10043,8 +10040,8 @@
       <c r="G276" s="1">
         <v>0</v>
       </c>
-      <c r="H276" s="1" t="s">
-        <v>820</v>
+      <c r="H276" s="1">
+        <v>57</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10069,8 +10066,8 @@
       <c r="G277" s="1">
         <v>0</v>
       </c>
-      <c r="H277" s="1" t="s">
-        <v>820</v>
+      <c r="H277" s="1">
+        <v>59</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10095,8 +10092,8 @@
       <c r="G278" s="1">
         <v>0</v>
       </c>
-      <c r="H278" s="1" t="s">
-        <v>820</v>
+      <c r="H278" s="1">
+        <v>82</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10121,8 +10118,8 @@
       <c r="G279" s="1">
         <v>0</v>
       </c>
-      <c r="H279" s="1" t="s">
-        <v>820</v>
+      <c r="H279" s="1">
+        <v>84</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10147,8 +10144,8 @@
       <c r="G280" s="1">
         <v>0</v>
       </c>
-      <c r="H280" s="1" t="s">
-        <v>820</v>
+      <c r="H280" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10173,8 +10170,8 @@
       <c r="G281" s="1">
         <v>0</v>
       </c>
-      <c r="H281" s="1" t="s">
-        <v>820</v>
+      <c r="H281" s="1">
+        <v>63</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10199,8 +10196,8 @@
       <c r="G282" s="1">
         <v>0</v>
       </c>
-      <c r="H282" s="1" t="s">
-        <v>820</v>
+      <c r="H282" s="1">
+        <v>68</v>
       </c>
     </row>
     <row r="283" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10251,8 +10248,8 @@
       <c r="G284" s="1">
         <v>0</v>
       </c>
-      <c r="H284" s="1" t="s">
-        <v>820</v>
+      <c r="H284" s="1">
+        <v>71</v>
       </c>
     </row>
     <row r="285" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10277,8 +10274,8 @@
       <c r="G285" s="1">
         <v>1</v>
       </c>
-      <c r="H285" s="1" t="s">
-        <v>820</v>
+      <c r="H285" s="1">
+        <v>93</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10303,8 +10300,8 @@
       <c r="G286" s="1">
         <v>0</v>
       </c>
-      <c r="H286" s="1" t="s">
-        <v>820</v>
+      <c r="H286" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10329,8 +10326,8 @@
       <c r="G287" s="1">
         <v>0</v>
       </c>
-      <c r="H287" s="1" t="s">
-        <v>820</v>
+      <c r="H287" s="1">
+        <v>73</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10433,8 +10430,8 @@
       <c r="G291" s="1">
         <v>0</v>
       </c>
-      <c r="H291" s="1" t="s">
-        <v>820</v>
+      <c r="H291" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10459,8 +10456,8 @@
       <c r="G292" s="1">
         <v>0</v>
       </c>
-      <c r="H292" s="1" t="s">
-        <v>820</v>
+      <c r="H292" s="1">
+        <v>84</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10511,8 +10508,8 @@
       <c r="G294" s="1">
         <v>0</v>
       </c>
-      <c r="H294" s="1" t="s">
-        <v>820</v>
+      <c r="H294" s="1">
+        <v>61</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10589,8 +10586,8 @@
       <c r="G297" s="1">
         <v>0</v>
       </c>
-      <c r="H297" s="1" t="s">
-        <v>820</v>
+      <c r="H297" s="1">
+        <v>81</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10719,8 +10716,8 @@
       <c r="G302" s="1">
         <v>0</v>
       </c>
-      <c r="H302" s="1" t="s">
-        <v>820</v>
+      <c r="H302" s="1">
+        <v>36</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10797,8 +10794,8 @@
       <c r="G305" s="1">
         <v>0</v>
       </c>
-      <c r="H305" s="1" t="s">
-        <v>820</v>
+      <c r="H305" s="1">
+        <v>49</v>
       </c>
     </row>
     <row r="306" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10823,8 +10820,8 @@
       <c r="G306" s="1">
         <v>0</v>
       </c>
-      <c r="H306" s="1" t="s">
-        <v>820</v>
+      <c r="H306" s="1">
+        <v>70</v>
       </c>
     </row>
     <row r="307" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10875,8 +10872,8 @@
       <c r="G308" s="1">
         <v>0</v>
       </c>
-      <c r="H308" s="1" t="s">
-        <v>820</v>
+      <c r="H308" s="1">
+        <v>68</v>
       </c>
     </row>
     <row r="309" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -10953,8 +10950,8 @@
       <c r="G311" s="1">
         <v>0</v>
       </c>
-      <c r="H311" s="1" t="s">
-        <v>820</v>
+      <c r="H311" s="1">
+        <v>93</v>
       </c>
     </row>
     <row r="312" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11005,8 +11002,8 @@
       <c r="G313" s="1">
         <v>0</v>
       </c>
-      <c r="H313" s="1" t="s">
-        <v>820</v>
+      <c r="H313" s="1">
+        <v>76</v>
       </c>
     </row>
     <row r="314" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11057,8 +11054,8 @@
       <c r="G315" s="1">
         <v>0</v>
       </c>
-      <c r="H315" s="1" t="s">
-        <v>820</v>
+      <c r="H315" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11083,8 +11080,8 @@
       <c r="G316" s="1">
         <v>0</v>
       </c>
-      <c r="H316" s="1" t="s">
-        <v>820</v>
+      <c r="H316" s="1">
+        <v>38</v>
       </c>
     </row>
     <row r="317" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11109,8 +11106,8 @@
       <c r="G317" s="1">
         <v>0</v>
       </c>
-      <c r="H317" s="1" t="s">
-        <v>820</v>
+      <c r="H317" s="1">
+        <v>54</v>
       </c>
     </row>
     <row r="318" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11135,8 +11132,8 @@
       <c r="G318" s="1">
         <v>0</v>
       </c>
-      <c r="H318" s="1" t="s">
-        <v>820</v>
+      <c r="H318" s="1">
+        <v>37</v>
       </c>
     </row>
     <row r="319" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11231,16 +11228,16 @@
         <v>646</v>
       </c>
       <c r="E322" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F322" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G322" s="1">
         <v>0</v>
       </c>
-      <c r="H322" s="1" t="s">
-        <v>820</v>
+      <c r="H322" s="1">
+        <v>37</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11369,8 +11366,8 @@
       <c r="G327" s="1">
         <v>0</v>
       </c>
-      <c r="H327" s="1" t="s">
-        <v>820</v>
+      <c r="H327" s="1">
+        <v>72</v>
       </c>
     </row>
     <row r="328" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11421,8 +11418,8 @@
       <c r="G329" s="1">
         <v>0</v>
       </c>
-      <c r="H329" s="1" t="s">
-        <v>820</v>
+      <c r="H329" s="1">
+        <v>82</v>
       </c>
     </row>
     <row r="330" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11473,8 +11470,8 @@
       <c r="G331" s="1">
         <v>0</v>
       </c>
-      <c r="H331" s="1" t="s">
-        <v>820</v>
+      <c r="H331" s="1">
+        <v>82</v>
       </c>
     </row>
     <row r="332" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11525,8 +11522,8 @@
       <c r="G333" s="1">
         <v>0</v>
       </c>
-      <c r="H333" s="1" t="s">
-        <v>820</v>
+      <c r="H333" s="1">
+        <v>63</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11551,8 +11548,8 @@
       <c r="G334" s="1">
         <v>0</v>
       </c>
-      <c r="H334" s="1" t="s">
-        <v>820</v>
+      <c r="H334" s="1">
+        <v>83</v>
       </c>
     </row>
     <row r="335" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11603,8 +11600,8 @@
       <c r="G336" s="1">
         <v>0</v>
       </c>
-      <c r="H336" s="1" t="s">
-        <v>820</v>
+      <c r="H336" s="1">
+        <v>37</v>
       </c>
     </row>
     <row r="337" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11681,8 +11678,8 @@
       <c r="G339" s="1">
         <v>0</v>
       </c>
-      <c r="H339" s="1" t="s">
-        <v>820</v>
+      <c r="H339" s="1">
+        <v>65</v>
       </c>
     </row>
     <row r="340" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11707,8 +11704,8 @@
       <c r="G340" s="1">
         <v>0</v>
       </c>
-      <c r="H340" s="1" t="s">
-        <v>820</v>
+      <c r="H340" s="1">
+        <v>73</v>
       </c>
     </row>
     <row r="341" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11733,8 +11730,8 @@
       <c r="G341" s="1">
         <v>0</v>
       </c>
-      <c r="H341" s="1" t="s">
-        <v>820</v>
+      <c r="H341" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="342" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11759,8 +11756,8 @@
       <c r="G342" s="1">
         <v>1</v>
       </c>
-      <c r="H342" s="1" t="s">
-        <v>820</v>
+      <c r="H342" s="1">
+        <v>81</v>
       </c>
     </row>
     <row r="343" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11785,8 +11782,8 @@
       <c r="G343" s="1">
         <v>0</v>
       </c>
-      <c r="H343" s="1" t="s">
-        <v>820</v>
+      <c r="H343" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="344" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11811,8 +11808,8 @@
       <c r="G344" s="1">
         <v>0</v>
       </c>
-      <c r="H344" s="1" t="s">
-        <v>820</v>
+      <c r="H344" s="1">
+        <v>85</v>
       </c>
     </row>
     <row r="345" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11837,8 +11834,8 @@
       <c r="G345" s="1">
         <v>0</v>
       </c>
-      <c r="H345" s="1" t="s">
-        <v>820</v>
+      <c r="H345" s="1">
+        <v>46</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11889,8 +11886,8 @@
       <c r="G347" s="1">
         <v>0</v>
       </c>
-      <c r="H347" s="1" t="s">
-        <v>820</v>
+      <c r="H347" s="1">
+        <v>69</v>
       </c>
     </row>
     <row r="348" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -11967,8 +11964,8 @@
       <c r="G350" s="1">
         <v>0</v>
       </c>
-      <c r="H350" s="1" t="s">
-        <v>820</v>
+      <c r="H350" s="1">
+        <v>29</v>
       </c>
     </row>
     <row r="351" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12019,8 +12016,8 @@
       <c r="G352" s="1">
         <v>0</v>
       </c>
-      <c r="H352" s="1" t="s">
-        <v>820</v>
+      <c r="H352" s="1">
+        <v>48</v>
       </c>
     </row>
     <row r="353" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12045,8 +12042,8 @@
       <c r="G353" s="1">
         <v>0</v>
       </c>
-      <c r="H353" s="1" t="s">
-        <v>820</v>
+      <c r="H353" s="1">
+        <v>90</v>
       </c>
     </row>
     <row r="354" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12071,8 +12068,8 @@
       <c r="G354" s="1">
         <v>0</v>
       </c>
-      <c r="H354" s="1" t="s">
-        <v>820</v>
+      <c r="H354" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="355" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12123,8 +12120,8 @@
       <c r="G356" s="1">
         <v>0</v>
       </c>
-      <c r="H356" s="1" t="s">
-        <v>820</v>
+      <c r="H356" s="1">
+        <v>76</v>
       </c>
     </row>
     <row r="357" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12149,8 +12146,8 @@
       <c r="G357" s="1">
         <v>1</v>
       </c>
-      <c r="H357" s="1" t="s">
-        <v>820</v>
+      <c r="H357" s="1">
+        <v>51</v>
       </c>
     </row>
     <row r="358" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12175,8 +12172,8 @@
       <c r="G358" s="1">
         <v>1</v>
       </c>
-      <c r="H358" s="1" t="s">
-        <v>820</v>
+      <c r="H358" s="1">
+        <v>69</v>
       </c>
     </row>
     <row r="359" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12201,8 +12198,8 @@
       <c r="G359" s="1">
         <v>0</v>
       </c>
-      <c r="H359" s="1" t="s">
-        <v>820</v>
+      <c r="H359" s="1">
+        <v>54</v>
       </c>
     </row>
     <row r="360" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12227,8 +12224,8 @@
       <c r="G360" s="1">
         <v>0</v>
       </c>
-      <c r="H360" s="1" t="s">
-        <v>820</v>
+      <c r="H360" s="1">
+        <v>79</v>
       </c>
     </row>
     <row r="361" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12279,8 +12276,8 @@
       <c r="G362" s="1">
         <v>1</v>
       </c>
-      <c r="H362" s="1" t="s">
-        <v>820</v>
+      <c r="H362" s="1">
+        <v>98</v>
       </c>
     </row>
     <row r="363" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12331,8 +12328,8 @@
       <c r="G364" s="1">
         <v>0</v>
       </c>
-      <c r="H364" s="1" t="s">
-        <v>820</v>
+      <c r="H364" s="1">
+        <v>46</v>
       </c>
     </row>
     <row r="365" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12357,8 +12354,8 @@
       <c r="G365" s="1">
         <v>0</v>
       </c>
-      <c r="H365" s="1" t="s">
-        <v>820</v>
+      <c r="H365" s="1">
+        <v>90</v>
       </c>
     </row>
     <row r="366" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12435,8 +12432,8 @@
       <c r="G368" s="1">
         <v>0</v>
       </c>
-      <c r="H368" s="1" t="s">
-        <v>820</v>
+      <c r="H368" s="1">
+        <v>59</v>
       </c>
     </row>
     <row r="369" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12461,8 +12458,8 @@
       <c r="G369" s="1">
         <v>1</v>
       </c>
-      <c r="H369" s="1" t="s">
-        <v>820</v>
+      <c r="H369" s="1">
+        <v>52</v>
       </c>
     </row>
     <row r="370" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12487,8 +12484,8 @@
       <c r="G370" s="1">
         <v>0</v>
       </c>
-      <c r="H370" s="1" t="s">
-        <v>820</v>
+      <c r="H370" s="1">
+        <v>51</v>
       </c>
     </row>
     <row r="371" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12513,8 +12510,8 @@
       <c r="G371" s="1">
         <v>0</v>
       </c>
-      <c r="H371" s="1" t="s">
-        <v>820</v>
+      <c r="H371" s="1">
+        <v>63</v>
       </c>
     </row>
     <row r="372" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12539,8 +12536,8 @@
       <c r="G372" s="1">
         <v>0</v>
       </c>
-      <c r="H372" s="1" t="s">
-        <v>820</v>
+      <c r="H372" s="1">
+        <v>81</v>
       </c>
     </row>
     <row r="373" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12565,8 +12562,8 @@
       <c r="G373" s="1">
         <v>1</v>
       </c>
-      <c r="H373" s="1" t="s">
-        <v>820</v>
+      <c r="H373" s="1">
+        <v>71</v>
       </c>
     </row>
     <row r="374" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12591,8 +12588,8 @@
       <c r="G374" s="1">
         <v>0</v>
       </c>
-      <c r="H374" s="1" t="s">
-        <v>820</v>
+      <c r="H374" s="1">
+        <v>52</v>
       </c>
     </row>
     <row r="375" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12617,8 +12614,8 @@
       <c r="G375" s="1">
         <v>0</v>
       </c>
-      <c r="H375" s="1" t="s">
-        <v>820</v>
+      <c r="H375" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="376" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12669,8 +12666,8 @@
       <c r="G377" s="1">
         <v>0</v>
       </c>
-      <c r="H377" s="1" t="s">
-        <v>820</v>
+      <c r="H377" s="1">
+        <v>34</v>
       </c>
     </row>
     <row r="378" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12721,8 +12718,8 @@
       <c r="G379" s="1">
         <v>1</v>
       </c>
-      <c r="H379" s="1" t="s">
-        <v>820</v>
+      <c r="H379" s="1">
+        <v>97</v>
       </c>
     </row>
     <row r="380" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12773,8 +12770,8 @@
       <c r="G381" s="1">
         <v>0</v>
       </c>
-      <c r="H381" s="1" t="s">
-        <v>820</v>
+      <c r="H381" s="1">
+        <v>68</v>
       </c>
     </row>
     <row r="382" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12825,8 +12822,8 @@
       <c r="G383" s="1">
         <v>0</v>
       </c>
-      <c r="H383" s="1" t="s">
-        <v>820</v>
+      <c r="H383" s="1">
+        <v>48</v>
       </c>
     </row>
     <row r="384" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12877,8 +12874,8 @@
       <c r="G385" s="1">
         <v>0</v>
       </c>
-      <c r="H385" s="1" t="s">
-        <v>820</v>
+      <c r="H385" s="1">
+        <v>81</v>
       </c>
     </row>
     <row r="386" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12929,8 +12926,8 @@
       <c r="G387" s="1">
         <v>1</v>
       </c>
-      <c r="H387" s="1" t="s">
-        <v>820</v>
+      <c r="H387" s="1">
+        <v>91</v>
       </c>
     </row>
     <row r="388" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -12950,13 +12947,13 @@
         <v>0</v>
       </c>
       <c r="F388" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G388" s="1">
         <v>1</v>
       </c>
-      <c r="H388" s="1" t="s">
-        <v>820</v>
+      <c r="H388" s="1">
+        <v>28</v>
       </c>
     </row>
     <row r="389" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -13033,8 +13030,8 @@
       <c r="G391" s="1">
         <v>0</v>
       </c>
-      <c r="H391" s="1" t="s">
-        <v>820</v>
+      <c r="H391" s="1">
+        <v>54</v>
       </c>
     </row>
     <row r="392" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -13111,8 +13108,8 @@
       <c r="G394" s="1">
         <v>1</v>
       </c>
-      <c r="H394" s="1" t="s">
-        <v>820</v>
+      <c r="H394" s="1">
+        <v>56</v>
       </c>
     </row>
     <row r="395" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -13137,8 +13134,8 @@
       <c r="G395" s="1">
         <v>0</v>
       </c>
-      <c r="H395" s="1" t="s">
-        <v>820</v>
+      <c r="H395" s="1">
+        <v>76</v>
       </c>
     </row>
     <row r="396" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -13163,8 +13160,8 @@
       <c r="G396" s="1">
         <v>0</v>
       </c>
-      <c r="H396" s="1" t="s">
-        <v>820</v>
+      <c r="H396" s="1">
+        <v>67</v>
       </c>
     </row>
     <row r="397" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -13189,8 +13186,8 @@
       <c r="G397" s="1">
         <v>0</v>
       </c>
-      <c r="H397" s="1" t="s">
-        <v>820</v>
+      <c r="H397" s="1">
+        <v>38</v>
       </c>
     </row>
     <row r="398" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -13215,8 +13212,8 @@
       <c r="G398" s="1">
         <v>0</v>
       </c>
-      <c r="H398" s="1" t="s">
-        <v>820</v>
+      <c r="H398" s="1">
+        <v>68</v>
       </c>
     </row>
     <row r="399" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -13293,8 +13290,8 @@
       <c r="G401" s="1">
         <v>0</v>
       </c>
-      <c r="H401" s="1" t="s">
-        <v>820</v>
+      <c r="H401" s="1">
+        <v>61</v>
       </c>
     </row>
     <row r="402" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -13319,8 +13316,8 @@
       <c r="G402" s="1">
         <v>1</v>
       </c>
-      <c r="H402" s="1" t="s">
-        <v>820</v>
+      <c r="H402" s="1">
+        <v>85</v>
       </c>
     </row>
     <row r="403" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -13371,8 +13368,8 @@
       <c r="G404" s="1">
         <v>0</v>
       </c>
-      <c r="H404" s="1" t="s">
-        <v>820</v>
+      <c r="H404" s="1">
+        <v>52</v>
       </c>
     </row>
     <row r="405" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -13423,8 +13420,8 @@
       <c r="G406" s="1">
         <v>0</v>
       </c>
-      <c r="H406" s="1" t="s">
-        <v>820</v>
+      <c r="H406" s="1">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
